--- a/CR/CR/HNVN-HR-FM Project Performance CheckPoint Form_mantran.xlsx
+++ b/CR/CR/HNVN-HR-FM Project Performance CheckPoint Form_mantran.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="69">
   <si>
     <t xml:space="preserve">Reviewed By: </t>
   </si>
@@ -387,6 +387,17 @@
   </si>
   <si>
     <t>ASE</t>
+  </si>
+  <si>
+    <t>- I have weekly report to direct manager, and I think it in a clear</t>
+  </si>
+  <si>
+    <t>- Sometime I have a ticket had problem which is affect the whole site, I fixed it and discuss with the one made the same ticket before change code. For example: 50457, 50461
+- When I help someone, I try to explain that problem so clear and does make that one misunderstand.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - I'm willing to get any ticket and try to finish asap.
+I think I approaching a ticket quickly. For example: 50422</t>
   </si>
 </sst>
 </file>
@@ -1126,7 +1137,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="141">
+  <cellXfs count="144">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -1184,115 +1195,357 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="7" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="8" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="7" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="7" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="9" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="9" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="8" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="11" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="11" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="10" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="10" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="12" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="9" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="6" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="6" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="9" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="12" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="6" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="6" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="13" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="7" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="6" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="6" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -1300,247 +1553,16 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="7" borderId="22" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="7" borderId="22" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="22" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="6" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="6" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="13" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="7" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="12" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="9" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="12" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="5" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="5" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="5" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="5" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="8" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="8" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="11" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="11" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="10" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="10" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="7" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="7" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="7" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="9" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="9" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1969,8 +1991,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12:F14"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30:F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1986,12 +2008,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="68" t="s">
+      <c r="C2" s="88" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
       <c r="G2" s="11"/>
     </row>
     <row r="3" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2001,10 +2023,10 @@
       <c r="C3" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="D3" s="71" t="s">
+      <c r="D3" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="71"/>
+      <c r="E3" s="89"/>
       <c r="F3" s="16" t="s">
         <v>64</v>
       </c>
@@ -2016,10 +2038,10 @@
       <c r="C4" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="D4" s="71" t="s">
+      <c r="D4" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="71"/>
+      <c r="E4" s="89"/>
       <c r="F4" s="16"/>
     </row>
     <row r="5" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2027,13 +2049,13 @@
       <c r="B5" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="140">
+      <c r="C5" s="30">
         <v>40610</v>
       </c>
-      <c r="D5" s="71" t="s">
+      <c r="D5" s="89" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="71"/>
+      <c r="E5" s="89"/>
       <c r="F5" s="16" t="s">
         <v>50</v>
       </c>
@@ -2047,21 +2069,21 @@
         <f>IF(E68&lt;1.6,"UNACCEPTABLE",IF(E68&lt;2,"NEED IMPROVEMENT",IF(E68&lt;2.5,"MEET EXPECTATION",IF(E68&lt;2.8,"EXCEED EXPECTATION","OUTSTANDING"))))</f>
         <v>MEET EXPECTATION</v>
       </c>
-      <c r="D6" s="71" t="s">
+      <c r="D6" s="89" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="71"/>
+      <c r="E6" s="89"/>
       <c r="F6" s="16"/>
     </row>
     <row r="7" spans="1:7" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="86"/>
-      <c r="C7" s="86"/>
-      <c r="D7" s="86"/>
-      <c r="E7" s="86"/>
-      <c r="F7" s="87" t="s">
+      <c r="B7" s="102"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="103" t="s">
         <v>43</v>
       </c>
-      <c r="G7" s="88"/>
+      <c r="G7" s="104"/>
     </row>
     <row r="8" spans="1:7" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="17" t="s">
@@ -2084,639 +2106,651 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="123" t="s">
+      <c r="A9" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="125" t="s">
+      <c r="B9" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="127" t="s">
+      <c r="C9" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="D9" s="76"/>
-      <c r="E9" s="76">
+      <c r="D9" s="43"/>
+      <c r="E9" s="43">
         <v>2</v>
       </c>
-      <c r="F9" s="131"/>
-      <c r="G9" s="128"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="36"/>
     </row>
     <row r="10" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="124"/>
-      <c r="B10" s="126"/>
-      <c r="C10" s="127"/>
-      <c r="D10" s="76"/>
-      <c r="E10" s="76"/>
-      <c r="F10" s="131"/>
-      <c r="G10" s="128"/>
+      <c r="A10" s="32"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="36"/>
     </row>
     <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="124"/>
-      <c r="B11" s="126"/>
-      <c r="C11" s="127"/>
-      <c r="D11" s="76"/>
-      <c r="E11" s="76"/>
-      <c r="F11" s="131"/>
-      <c r="G11" s="128"/>
+      <c r="A11" s="32"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="36"/>
     </row>
     <row r="12" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="124"/>
-      <c r="B12" s="126"/>
-      <c r="C12" s="84" t="s">
+      <c r="A12" s="32"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="76"/>
-      <c r="E12" s="69">
+      <c r="D12" s="43">
         <v>2</v>
       </c>
-      <c r="F12" s="132"/>
-      <c r="G12" s="128"/>
+      <c r="E12" s="44">
+        <v>2</v>
+      </c>
+      <c r="F12" s="142" t="s">
+        <v>66</v>
+      </c>
+      <c r="G12" s="36"/>
     </row>
     <row r="13" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="124"/>
-      <c r="B13" s="126"/>
-      <c r="C13" s="84"/>
-      <c r="D13" s="76"/>
-      <c r="E13" s="69"/>
-      <c r="F13" s="132"/>
-      <c r="G13" s="128"/>
+      <c r="A13" s="32"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="36"/>
     </row>
     <row r="14" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="124"/>
-      <c r="B14" s="126"/>
-      <c r="C14" s="84"/>
-      <c r="D14" s="76"/>
-      <c r="E14" s="69"/>
-      <c r="F14" s="132"/>
-      <c r="G14" s="128"/>
+      <c r="A14" s="32"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="36"/>
     </row>
     <row r="15" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="124"/>
-      <c r="B15" s="126"/>
-      <c r="C15" s="84" t="s">
+      <c r="A15" s="32"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="D15" s="69"/>
-      <c r="E15" s="69">
+      <c r="D15" s="44">
         <v>2</v>
       </c>
-      <c r="F15" s="85"/>
-      <c r="G15" s="128"/>
+      <c r="E15" s="44">
+        <v>2</v>
+      </c>
+      <c r="F15" s="141" t="s">
+        <v>67</v>
+      </c>
+      <c r="G15" s="36"/>
     </row>
     <row r="16" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="124"/>
-      <c r="B16" s="126"/>
-      <c r="C16" s="84"/>
-      <c r="D16" s="69"/>
-      <c r="E16" s="69"/>
-      <c r="F16" s="85"/>
-      <c r="G16" s="128"/>
+      <c r="A16" s="32"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="101"/>
+      <c r="G16" s="36"/>
     </row>
     <row r="17" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="124"/>
-      <c r="B17" s="126"/>
-      <c r="C17" s="84"/>
-      <c r="D17" s="69"/>
-      <c r="E17" s="69"/>
-      <c r="F17" s="85"/>
-      <c r="G17" s="128"/>
+      <c r="A17" s="32"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="101"/>
+      <c r="G17" s="36"/>
     </row>
     <row r="18" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="124"/>
-      <c r="B18" s="129" t="s">
+      <c r="A18" s="32"/>
+      <c r="B18" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="130" t="s">
+      <c r="C18" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="D18" s="70"/>
-      <c r="E18" s="70">
+      <c r="D18" s="54"/>
+      <c r="E18" s="54">
         <v>2</v>
       </c>
-      <c r="F18" s="110"/>
-      <c r="G18" s="111"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="53"/>
     </row>
     <row r="19" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="124"/>
-      <c r="B19" s="129"/>
-      <c r="C19" s="130"/>
-      <c r="D19" s="70"/>
-      <c r="E19" s="70"/>
-      <c r="F19" s="110"/>
-      <c r="G19" s="111"/>
+      <c r="A19" s="32"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="53"/>
     </row>
     <row r="20" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="124"/>
-      <c r="B20" s="129"/>
-      <c r="C20" s="130"/>
-      <c r="D20" s="70"/>
-      <c r="E20" s="70"/>
-      <c r="F20" s="110"/>
-      <c r="G20" s="111"/>
+      <c r="A20" s="32"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="53"/>
     </row>
     <row r="21" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="124"/>
-      <c r="B21" s="129"/>
-      <c r="C21" s="130"/>
-      <c r="D21" s="70"/>
-      <c r="E21" s="70"/>
-      <c r="F21" s="110"/>
-      <c r="G21" s="111"/>
+      <c r="A21" s="32"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="53"/>
     </row>
     <row r="22" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="124"/>
-      <c r="B22" s="129"/>
-      <c r="C22" s="130" t="s">
+      <c r="A22" s="32"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="D22" s="70"/>
-      <c r="E22" s="70">
+      <c r="D22" s="54"/>
+      <c r="E22" s="54">
         <v>2</v>
       </c>
-      <c r="F22" s="110"/>
-      <c r="G22" s="111"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="53"/>
     </row>
     <row r="23" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="124"/>
-      <c r="B23" s="129"/>
-      <c r="C23" s="130"/>
-      <c r="D23" s="70"/>
-      <c r="E23" s="70"/>
-      <c r="F23" s="110"/>
-      <c r="G23" s="111"/>
+      <c r="A23" s="32"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="54"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="53"/>
     </row>
     <row r="24" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="124"/>
-      <c r="B24" s="129"/>
-      <c r="C24" s="130"/>
-      <c r="D24" s="70"/>
-      <c r="E24" s="70"/>
-      <c r="F24" s="110"/>
-      <c r="G24" s="111"/>
+      <c r="A24" s="32"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="54"/>
+      <c r="E24" s="54"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="53"/>
     </row>
     <row r="25" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="124"/>
-      <c r="B25" s="129"/>
-      <c r="C25" s="130"/>
-      <c r="D25" s="70"/>
-      <c r="E25" s="70"/>
-      <c r="F25" s="110"/>
-      <c r="G25" s="111"/>
+      <c r="A25" s="32"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="54"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="53"/>
     </row>
     <row r="26" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="124"/>
-      <c r="B26" s="136" t="s">
+      <c r="A26" s="32"/>
+      <c r="B26" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="137" t="s">
+      <c r="C26" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="D26" s="121"/>
-      <c r="E26" s="121">
+      <c r="D26" s="64">
         <v>2</v>
       </c>
-      <c r="F26" s="138"/>
-      <c r="G26" s="139"/>
+      <c r="E26" s="64">
+        <v>2</v>
+      </c>
+      <c r="F26" s="143" t="s">
+        <v>68</v>
+      </c>
+      <c r="G26" s="52"/>
     </row>
     <row r="27" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="124"/>
-      <c r="B27" s="136"/>
-      <c r="C27" s="137"/>
-      <c r="D27" s="121"/>
-      <c r="E27" s="121"/>
-      <c r="F27" s="138"/>
-      <c r="G27" s="139"/>
+      <c r="A27" s="32"/>
+      <c r="B27" s="49"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="64"/>
+      <c r="E27" s="64"/>
+      <c r="F27" s="51"/>
+      <c r="G27" s="52"/>
     </row>
     <row r="28" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="124"/>
-      <c r="B28" s="136"/>
-      <c r="C28" s="137"/>
-      <c r="D28" s="121"/>
-      <c r="E28" s="121"/>
-      <c r="F28" s="138"/>
-      <c r="G28" s="139"/>
+      <c r="A28" s="32"/>
+      <c r="B28" s="49"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="64"/>
+      <c r="E28" s="64"/>
+      <c r="F28" s="51"/>
+      <c r="G28" s="52"/>
     </row>
     <row r="29" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="124"/>
-      <c r="B29" s="136"/>
-      <c r="C29" s="137"/>
-      <c r="D29" s="121"/>
-      <c r="E29" s="121"/>
-      <c r="F29" s="138"/>
-      <c r="G29" s="139"/>
+      <c r="A29" s="32"/>
+      <c r="B29" s="49"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="64"/>
+      <c r="E29" s="64"/>
+      <c r="F29" s="51"/>
+      <c r="G29" s="52"/>
     </row>
     <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="124"/>
-      <c r="B30" s="133" t="s">
+      <c r="A30" s="32"/>
+      <c r="B30" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="C30" s="92" t="s">
+      <c r="C30" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="40"/>
-      <c r="E30" s="40">
+      <c r="D30" s="65"/>
+      <c r="E30" s="65">
         <v>2</v>
       </c>
-      <c r="F30" s="134"/>
-      <c r="G30" s="135"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="48"/>
     </row>
     <row r="31" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="124"/>
-      <c r="B31" s="133"/>
-      <c r="C31" s="92"/>
-      <c r="D31" s="40"/>
-      <c r="E31" s="40"/>
-      <c r="F31" s="134"/>
-      <c r="G31" s="135"/>
+      <c r="A31" s="32"/>
+      <c r="B31" s="45"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="65"/>
+      <c r="E31" s="65"/>
+      <c r="F31" s="47"/>
+      <c r="G31" s="48"/>
     </row>
     <row r="32" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="124"/>
-      <c r="B32" s="133"/>
-      <c r="C32" s="92"/>
-      <c r="D32" s="40"/>
-      <c r="E32" s="40"/>
-      <c r="F32" s="134"/>
-      <c r="G32" s="135"/>
+      <c r="A32" s="32"/>
+      <c r="B32" s="45"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="65"/>
+      <c r="E32" s="65"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="48"/>
     </row>
     <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="124"/>
-      <c r="B33" s="133"/>
-      <c r="C33" s="92"/>
-      <c r="D33" s="40"/>
-      <c r="E33" s="40"/>
-      <c r="F33" s="134"/>
-      <c r="G33" s="135"/>
+      <c r="A33" s="32"/>
+      <c r="B33" s="45"/>
+      <c r="C33" s="46"/>
+      <c r="D33" s="65"/>
+      <c r="E33" s="65"/>
+      <c r="F33" s="47"/>
+      <c r="G33" s="48"/>
     </row>
     <row r="34" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="124"/>
-      <c r="B34" s="117" t="s">
+      <c r="A34" s="32"/>
+      <c r="B34" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="C34" s="118" t="s">
+      <c r="C34" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="D34" s="122"/>
-      <c r="E34" s="122">
+      <c r="D34" s="66"/>
+      <c r="E34" s="66">
         <v>2</v>
       </c>
-      <c r="F34" s="119"/>
-      <c r="G34" s="120"/>
+      <c r="F34" s="62"/>
+      <c r="G34" s="63"/>
     </row>
     <row r="35" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="124"/>
-      <c r="B35" s="117"/>
-      <c r="C35" s="118"/>
-      <c r="D35" s="122"/>
-      <c r="E35" s="122"/>
-      <c r="F35" s="119"/>
-      <c r="G35" s="120"/>
+      <c r="A35" s="32"/>
+      <c r="B35" s="60"/>
+      <c r="C35" s="61"/>
+      <c r="D35" s="66"/>
+      <c r="E35" s="66"/>
+      <c r="F35" s="62"/>
+      <c r="G35" s="63"/>
     </row>
     <row r="36" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="124"/>
-      <c r="B36" s="117"/>
-      <c r="C36" s="118"/>
-      <c r="D36" s="122"/>
-      <c r="E36" s="122"/>
-      <c r="F36" s="119"/>
-      <c r="G36" s="120"/>
+      <c r="A36" s="32"/>
+      <c r="B36" s="60"/>
+      <c r="C36" s="61"/>
+      <c r="D36" s="66"/>
+      <c r="E36" s="66"/>
+      <c r="F36" s="62"/>
+      <c r="G36" s="63"/>
     </row>
     <row r="37" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="124"/>
-      <c r="B37" s="117"/>
-      <c r="C37" s="118"/>
-      <c r="D37" s="122"/>
-      <c r="E37" s="122"/>
-      <c r="F37" s="119"/>
-      <c r="G37" s="120"/>
+      <c r="A37" s="32"/>
+      <c r="B37" s="60"/>
+      <c r="C37" s="61"/>
+      <c r="D37" s="66"/>
+      <c r="E37" s="66"/>
+      <c r="F37" s="62"/>
+      <c r="G37" s="63"/>
     </row>
     <row r="38" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="124"/>
-      <c r="B38" s="112" t="s">
+      <c r="A38" s="32"/>
+      <c r="B38" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="C38" s="113" t="s">
+      <c r="C38" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="D38" s="116"/>
-      <c r="E38" s="116">
+      <c r="D38" s="59"/>
+      <c r="E38" s="59">
         <v>2</v>
       </c>
-      <c r="F38" s="114"/>
-      <c r="G38" s="115"/>
+      <c r="F38" s="57"/>
+      <c r="G38" s="58"/>
     </row>
     <row r="39" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="124"/>
-      <c r="B39" s="112"/>
-      <c r="C39" s="113"/>
-      <c r="D39" s="116"/>
-      <c r="E39" s="116"/>
-      <c r="F39" s="114"/>
-      <c r="G39" s="115"/>
+      <c r="A39" s="32"/>
+      <c r="B39" s="55"/>
+      <c r="C39" s="56"/>
+      <c r="D39" s="59"/>
+      <c r="E39" s="59"/>
+      <c r="F39" s="57"/>
+      <c r="G39" s="58"/>
     </row>
     <row r="40" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="124"/>
-      <c r="B40" s="112"/>
-      <c r="C40" s="113"/>
-      <c r="D40" s="116"/>
-      <c r="E40" s="116"/>
-      <c r="F40" s="114"/>
-      <c r="G40" s="115"/>
+      <c r="A40" s="32"/>
+      <c r="B40" s="55"/>
+      <c r="C40" s="56"/>
+      <c r="D40" s="59"/>
+      <c r="E40" s="59"/>
+      <c r="F40" s="57"/>
+      <c r="G40" s="58"/>
     </row>
     <row r="41" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="124"/>
-      <c r="B41" s="112"/>
-      <c r="C41" s="113"/>
-      <c r="D41" s="116"/>
-      <c r="E41" s="116"/>
-      <c r="F41" s="114"/>
-      <c r="G41" s="115"/>
+      <c r="A41" s="32"/>
+      <c r="B41" s="55"/>
+      <c r="C41" s="56"/>
+      <c r="D41" s="59"/>
+      <c r="E41" s="59"/>
+      <c r="F41" s="57"/>
+      <c r="G41" s="58"/>
     </row>
     <row r="42" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="124"/>
-      <c r="B42" s="106" t="s">
+      <c r="A42" s="32"/>
+      <c r="B42" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="C42" s="101" t="s">
+      <c r="C42" s="68" t="s">
         <v>58</v>
       </c>
-      <c r="D42" s="108"/>
-      <c r="E42" s="108">
+      <c r="D42" s="75"/>
+      <c r="E42" s="75">
         <v>2</v>
       </c>
-      <c r="F42" s="103"/>
-      <c r="G42" s="100"/>
+      <c r="F42" s="70"/>
+      <c r="G42" s="67"/>
     </row>
     <row r="43" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="124"/>
-      <c r="B43" s="106"/>
-      <c r="C43" s="101"/>
-      <c r="D43" s="108"/>
-      <c r="E43" s="108"/>
-      <c r="F43" s="103"/>
-      <c r="G43" s="100"/>
+      <c r="A43" s="32"/>
+      <c r="B43" s="73"/>
+      <c r="C43" s="68"/>
+      <c r="D43" s="75"/>
+      <c r="E43" s="75"/>
+      <c r="F43" s="70"/>
+      <c r="G43" s="67"/>
     </row>
     <row r="44" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="124"/>
-      <c r="B44" s="106"/>
-      <c r="C44" s="101"/>
-      <c r="D44" s="108"/>
-      <c r="E44" s="108"/>
-      <c r="F44" s="103"/>
-      <c r="G44" s="100"/>
+      <c r="A44" s="32"/>
+      <c r="B44" s="73"/>
+      <c r="C44" s="68"/>
+      <c r="D44" s="75"/>
+      <c r="E44" s="75"/>
+      <c r="F44" s="70"/>
+      <c r="G44" s="67"/>
     </row>
     <row r="45" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="124"/>
-      <c r="B45" s="106"/>
-      <c r="C45" s="101" t="s">
+      <c r="A45" s="32"/>
+      <c r="B45" s="73"/>
+      <c r="C45" s="68" t="s">
         <v>59</v>
       </c>
-      <c r="D45" s="108"/>
-      <c r="E45" s="108">
+      <c r="D45" s="75"/>
+      <c r="E45" s="75">
         <v>2</v>
       </c>
-      <c r="F45" s="103"/>
-      <c r="G45" s="100"/>
+      <c r="F45" s="70"/>
+      <c r="G45" s="67"/>
     </row>
     <row r="46" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="124"/>
-      <c r="B46" s="106"/>
-      <c r="C46" s="101"/>
-      <c r="D46" s="108"/>
-      <c r="E46" s="108"/>
-      <c r="F46" s="103"/>
-      <c r="G46" s="100"/>
+      <c r="A46" s="32"/>
+      <c r="B46" s="73"/>
+      <c r="C46" s="68"/>
+      <c r="D46" s="75"/>
+      <c r="E46" s="75"/>
+      <c r="F46" s="70"/>
+      <c r="G46" s="67"/>
     </row>
     <row r="47" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="124"/>
-      <c r="B47" s="106"/>
-      <c r="C47" s="101"/>
-      <c r="D47" s="108"/>
-      <c r="E47" s="108"/>
-      <c r="F47" s="103"/>
-      <c r="G47" s="100"/>
+      <c r="A47" s="32"/>
+      <c r="B47" s="73"/>
+      <c r="C47" s="68"/>
+      <c r="D47" s="75"/>
+      <c r="E47" s="75"/>
+      <c r="F47" s="70"/>
+      <c r="G47" s="67"/>
     </row>
     <row r="48" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="124"/>
-      <c r="B48" s="106"/>
-      <c r="C48" s="101" t="s">
+      <c r="A48" s="32"/>
+      <c r="B48" s="73"/>
+      <c r="C48" s="68" t="s">
         <v>60</v>
       </c>
-      <c r="D48" s="108"/>
-      <c r="E48" s="108">
+      <c r="D48" s="75"/>
+      <c r="E48" s="75">
         <v>2</v>
       </c>
-      <c r="F48" s="103"/>
-      <c r="G48" s="100"/>
+      <c r="F48" s="70"/>
+      <c r="G48" s="67"/>
     </row>
     <row r="49" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="124"/>
-      <c r="B49" s="106"/>
-      <c r="C49" s="101"/>
-      <c r="D49" s="108"/>
-      <c r="E49" s="108"/>
-      <c r="F49" s="103"/>
-      <c r="G49" s="100"/>
+      <c r="A49" s="32"/>
+      <c r="B49" s="73"/>
+      <c r="C49" s="68"/>
+      <c r="D49" s="75"/>
+      <c r="E49" s="75"/>
+      <c r="F49" s="70"/>
+      <c r="G49" s="67"/>
     </row>
     <row r="50" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="124"/>
-      <c r="B50" s="107"/>
-      <c r="C50" s="102"/>
-      <c r="D50" s="109"/>
-      <c r="E50" s="109"/>
-      <c r="F50" s="104"/>
-      <c r="G50" s="105"/>
+      <c r="A50" s="32"/>
+      <c r="B50" s="74"/>
+      <c r="C50" s="69"/>
+      <c r="D50" s="76"/>
+      <c r="E50" s="76"/>
+      <c r="F50" s="71"/>
+      <c r="G50" s="72"/>
     </row>
     <row r="51" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="94" t="s">
+      <c r="A51" s="82" t="s">
         <v>31</v>
       </c>
-      <c r="B51" s="96" t="s">
+      <c r="B51" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="C51" s="97" t="s">
+      <c r="C51" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="D51" s="99"/>
-      <c r="E51" s="99">
+      <c r="D51" s="87"/>
+      <c r="E51" s="87">
         <v>2</v>
       </c>
-      <c r="F51" s="98"/>
-      <c r="G51" s="89"/>
+      <c r="F51" s="86"/>
+      <c r="G51" s="77"/>
     </row>
     <row r="52" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="95"/>
-      <c r="B52" s="96"/>
-      <c r="C52" s="97"/>
-      <c r="D52" s="99"/>
-      <c r="E52" s="99"/>
-      <c r="F52" s="98"/>
-      <c r="G52" s="89"/>
+      <c r="A52" s="83"/>
+      <c r="B52" s="84"/>
+      <c r="C52" s="85"/>
+      <c r="D52" s="87"/>
+      <c r="E52" s="87"/>
+      <c r="F52" s="86"/>
+      <c r="G52" s="77"/>
     </row>
     <row r="53" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="95"/>
-      <c r="B53" s="96"/>
-      <c r="C53" s="97"/>
-      <c r="D53" s="99"/>
-      <c r="E53" s="99"/>
-      <c r="F53" s="98"/>
-      <c r="G53" s="89"/>
+      <c r="A53" s="83"/>
+      <c r="B53" s="84"/>
+      <c r="C53" s="85"/>
+      <c r="D53" s="87"/>
+      <c r="E53" s="87"/>
+      <c r="F53" s="86"/>
+      <c r="G53" s="77"/>
     </row>
     <row r="54" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="95"/>
-      <c r="B54" s="96"/>
-      <c r="C54" s="97"/>
-      <c r="D54" s="99"/>
-      <c r="E54" s="99"/>
-      <c r="F54" s="98"/>
-      <c r="G54" s="89"/>
+      <c r="A54" s="83"/>
+      <c r="B54" s="84"/>
+      <c r="C54" s="85"/>
+      <c r="D54" s="87"/>
+      <c r="E54" s="87"/>
+      <c r="F54" s="86"/>
+      <c r="G54" s="77"/>
     </row>
     <row r="55" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="95"/>
-      <c r="B55" s="90" t="s">
+      <c r="A55" s="83"/>
+      <c r="B55" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="C55" s="92" t="s">
+      <c r="C55" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="D55" s="40"/>
-      <c r="E55" s="40">
+      <c r="D55" s="65"/>
+      <c r="E55" s="65">
         <v>2</v>
       </c>
-      <c r="F55" s="93"/>
-      <c r="G55" s="65"/>
+      <c r="F55" s="80"/>
+      <c r="G55" s="81"/>
     </row>
     <row r="56" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="95"/>
-      <c r="B56" s="91"/>
-      <c r="C56" s="92"/>
-      <c r="D56" s="40"/>
-      <c r="E56" s="40"/>
-      <c r="F56" s="93"/>
-      <c r="G56" s="65"/>
+      <c r="A56" s="83"/>
+      <c r="B56" s="79"/>
+      <c r="C56" s="46"/>
+      <c r="D56" s="65"/>
+      <c r="E56" s="65"/>
+      <c r="F56" s="80"/>
+      <c r="G56" s="81"/>
     </row>
     <row r="57" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="95"/>
-      <c r="B57" s="91"/>
-      <c r="C57" s="92"/>
-      <c r="D57" s="40"/>
-      <c r="E57" s="40"/>
-      <c r="F57" s="93"/>
-      <c r="G57" s="65"/>
+      <c r="A57" s="83"/>
+      <c r="B57" s="79"/>
+      <c r="C57" s="46"/>
+      <c r="D57" s="65"/>
+      <c r="E57" s="65"/>
+      <c r="F57" s="80"/>
+      <c r="G57" s="81"/>
     </row>
     <row r="58" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="95"/>
-      <c r="B58" s="91"/>
-      <c r="C58" s="92" t="s">
+      <c r="A58" s="83"/>
+      <c r="B58" s="79"/>
+      <c r="C58" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="D58" s="40"/>
-      <c r="E58" s="40">
+      <c r="D58" s="65"/>
+      <c r="E58" s="65">
         <v>2</v>
       </c>
-      <c r="F58" s="93"/>
-      <c r="G58" s="65"/>
+      <c r="F58" s="80"/>
+      <c r="G58" s="81"/>
     </row>
     <row r="59" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="95"/>
-      <c r="B59" s="91"/>
-      <c r="C59" s="92"/>
-      <c r="D59" s="40"/>
-      <c r="E59" s="40"/>
-      <c r="F59" s="93"/>
-      <c r="G59" s="65"/>
+      <c r="A59" s="83"/>
+      <c r="B59" s="79"/>
+      <c r="C59" s="46"/>
+      <c r="D59" s="65"/>
+      <c r="E59" s="65"/>
+      <c r="F59" s="80"/>
+      <c r="G59" s="81"/>
     </row>
     <row r="60" spans="1:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="95"/>
-      <c r="B60" s="91"/>
-      <c r="C60" s="92"/>
-      <c r="D60" s="40"/>
-      <c r="E60" s="40"/>
-      <c r="F60" s="93"/>
-      <c r="G60" s="65"/>
+      <c r="A60" s="83"/>
+      <c r="B60" s="79"/>
+      <c r="C60" s="46"/>
+      <c r="D60" s="65"/>
+      <c r="E60" s="65"/>
+      <c r="F60" s="80"/>
+      <c r="G60" s="81"/>
     </row>
     <row r="61" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="95"/>
-      <c r="B61" s="66" t="s">
+      <c r="A61" s="83"/>
+      <c r="B61" s="139" t="s">
         <v>5</v>
       </c>
-      <c r="C61" s="81" t="s">
+      <c r="C61" s="98" t="s">
         <v>61</v>
       </c>
-      <c r="D61" s="83"/>
-      <c r="E61" s="83">
+      <c r="D61" s="100"/>
+      <c r="E61" s="100">
         <v>2</v>
       </c>
-      <c r="F61" s="82"/>
-      <c r="G61" s="67"/>
+      <c r="F61" s="99"/>
+      <c r="G61" s="140"/>
     </row>
     <row r="62" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="95"/>
-      <c r="B62" s="66"/>
-      <c r="C62" s="81"/>
-      <c r="D62" s="83"/>
-      <c r="E62" s="83"/>
-      <c r="F62" s="82"/>
-      <c r="G62" s="67"/>
+      <c r="A62" s="83"/>
+      <c r="B62" s="139"/>
+      <c r="C62" s="98"/>
+      <c r="D62" s="100"/>
+      <c r="E62" s="100"/>
+      <c r="F62" s="99"/>
+      <c r="G62" s="140"/>
     </row>
     <row r="63" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="95"/>
-      <c r="B63" s="66"/>
-      <c r="C63" s="81"/>
-      <c r="D63" s="83"/>
-      <c r="E63" s="83"/>
-      <c r="F63" s="82"/>
-      <c r="G63" s="67"/>
+      <c r="A63" s="83"/>
+      <c r="B63" s="139"/>
+      <c r="C63" s="98"/>
+      <c r="D63" s="100"/>
+      <c r="E63" s="100"/>
+      <c r="F63" s="99"/>
+      <c r="G63" s="140"/>
     </row>
     <row r="64" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="95"/>
-      <c r="B64" s="66"/>
-      <c r="C64" s="81"/>
-      <c r="D64" s="83"/>
-      <c r="E64" s="83"/>
-      <c r="F64" s="82"/>
-      <c r="G64" s="67"/>
+      <c r="A64" s="83"/>
+      <c r="B64" s="139"/>
+      <c r="C64" s="98"/>
+      <c r="D64" s="100"/>
+      <c r="E64" s="100"/>
+      <c r="F64" s="99"/>
+      <c r="G64" s="140"/>
     </row>
     <row r="65" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="61" t="s">
+      <c r="A65" s="135" t="s">
         <v>32</v>
       </c>
-      <c r="B65" s="63" t="s">
+      <c r="B65" s="137" t="s">
         <v>33</v>
       </c>
-      <c r="C65" s="77" t="s">
+      <c r="C65" s="94" t="s">
         <v>34</v>
       </c>
-      <c r="D65" s="73"/>
-      <c r="E65" s="73">
+      <c r="D65" s="91"/>
+      <c r="E65" s="91">
         <v>2</v>
       </c>
-      <c r="F65" s="79"/>
-      <c r="G65" s="59"/>
+      <c r="F65" s="96"/>
+      <c r="G65" s="133"/>
     </row>
     <row r="66" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="61"/>
-      <c r="B66" s="63"/>
-      <c r="C66" s="77"/>
-      <c r="D66" s="74"/>
-      <c r="E66" s="74"/>
-      <c r="F66" s="79"/>
-      <c r="G66" s="59"/>
+      <c r="A66" s="135"/>
+      <c r="B66" s="137"/>
+      <c r="C66" s="94"/>
+      <c r="D66" s="92"/>
+      <c r="E66" s="92"/>
+      <c r="F66" s="96"/>
+      <c r="G66" s="133"/>
     </row>
     <row r="67" spans="1:7" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="62"/>
-      <c r="B67" s="64"/>
-      <c r="C67" s="78"/>
-      <c r="D67" s="75"/>
-      <c r="E67" s="75"/>
-      <c r="F67" s="80"/>
-      <c r="G67" s="60"/>
+      <c r="A67" s="136"/>
+      <c r="B67" s="138"/>
+      <c r="C67" s="95"/>
+      <c r="D67" s="93"/>
+      <c r="E67" s="93"/>
+      <c r="F67" s="97"/>
+      <c r="G67" s="134"/>
     </row>
     <row r="68" spans="1:7" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A68" s="15"/>
       <c r="B68" s="22"/>
-      <c r="C68" s="72" t="s">
+      <c r="C68" s="90" t="s">
         <v>36</v>
       </c>
-      <c r="D68" s="72"/>
+      <c r="D68" s="90"/>
       <c r="E68" s="26">
         <f>AVERAGE(E9:E67,E51,E51,E51,E51,E61,E61)</f>
         <v>2</v>
@@ -2725,77 +2759,173 @@
       <c r="G68" s="24"/>
     </row>
     <row r="69" spans="1:7" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="49" t="s">
+      <c r="A69" s="123" t="s">
         <v>44</v>
       </c>
-      <c r="B69" s="50"/>
-      <c r="C69" s="51"/>
-      <c r="D69" s="52"/>
-      <c r="E69" s="52"/>
-      <c r="F69" s="52"/>
-      <c r="G69" s="53"/>
+      <c r="B69" s="124"/>
+      <c r="C69" s="125"/>
+      <c r="D69" s="126"/>
+      <c r="E69" s="126"/>
+      <c r="F69" s="126"/>
+      <c r="G69" s="127"/>
     </row>
     <row r="70" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="54" t="s">
+      <c r="A70" s="128" t="s">
         <v>45</v>
       </c>
-      <c r="B70" s="55"/>
-      <c r="C70" s="56"/>
-      <c r="D70" s="57"/>
-      <c r="E70" s="57"/>
-      <c r="F70" s="57"/>
-      <c r="G70" s="58"/>
+      <c r="B70" s="129"/>
+      <c r="C70" s="130"/>
+      <c r="D70" s="131"/>
+      <c r="E70" s="131"/>
+      <c r="F70" s="131"/>
+      <c r="G70" s="132"/>
     </row>
     <row r="71" spans="1:7" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="44" t="s">
+      <c r="A71" s="118" t="s">
         <v>46</v>
       </c>
-      <c r="B71" s="45"/>
-      <c r="C71" s="46"/>
-      <c r="D71" s="47"/>
-      <c r="E71" s="47"/>
-      <c r="F71" s="47"/>
-      <c r="G71" s="48"/>
+      <c r="B71" s="119"/>
+      <c r="C71" s="120"/>
+      <c r="D71" s="121"/>
+      <c r="E71" s="121"/>
+      <c r="F71" s="121"/>
+      <c r="G71" s="122"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A72" s="41" t="s">
+      <c r="A72" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="B72" s="42"/>
-      <c r="C72" s="42"/>
-      <c r="D72" s="42"/>
-      <c r="E72" s="42"/>
-      <c r="F72" s="42"/>
-      <c r="G72" s="43"/>
+      <c r="B72" s="116"/>
+      <c r="C72" s="116"/>
+      <c r="D72" s="116"/>
+      <c r="E72" s="116"/>
+      <c r="F72" s="116"/>
+      <c r="G72" s="117"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A73" s="30" t="s">
+      <c r="A73" s="105" t="s">
         <v>0</v>
       </c>
-      <c r="B73" s="31"/>
+      <c r="B73" s="106"/>
       <c r="C73" s="28"/>
-      <c r="D73" s="32" t="s">
+      <c r="D73" s="107" t="s">
         <v>48</v>
       </c>
-      <c r="E73" s="32"/>
-      <c r="F73" s="36"/>
-      <c r="G73" s="37"/>
+      <c r="E73" s="107"/>
+      <c r="F73" s="111"/>
+      <c r="G73" s="112"/>
     </row>
     <row r="74" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="33" t="s">
+      <c r="A74" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="B74" s="34"/>
+      <c r="B74" s="109"/>
       <c r="C74" s="29"/>
-      <c r="D74" s="35" t="s">
+      <c r="D74" s="110" t="s">
         <v>48</v>
       </c>
-      <c r="E74" s="35"/>
-      <c r="F74" s="38"/>
-      <c r="G74" s="39"/>
+      <c r="E74" s="110"/>
+      <c r="F74" s="113"/>
+      <c r="G74" s="114"/>
     </row>
   </sheetData>
   <mergeCells count="120">
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="D73:E73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="F73:G73"/>
+    <mergeCell ref="F74:G74"/>
+    <mergeCell ref="D55:D57"/>
+    <mergeCell ref="E55:E57"/>
+    <mergeCell ref="D58:D60"/>
+    <mergeCell ref="E58:E60"/>
+    <mergeCell ref="A72:G72"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="G65:G67"/>
+    <mergeCell ref="A65:A67"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="G58:G60"/>
+    <mergeCell ref="B61:B64"/>
+    <mergeCell ref="G61:G64"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="D18:D21"/>
+    <mergeCell ref="E18:E21"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="D65:D67"/>
+    <mergeCell ref="E65:E67"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="C65:C67"/>
+    <mergeCell ref="F65:F67"/>
+    <mergeCell ref="C61:C64"/>
+    <mergeCell ref="F61:F64"/>
+    <mergeCell ref="D61:D64"/>
+    <mergeCell ref="E61:E64"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="F15:F17"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="G51:G54"/>
+    <mergeCell ref="B55:B60"/>
+    <mergeCell ref="C55:C57"/>
+    <mergeCell ref="F55:F57"/>
+    <mergeCell ref="G55:G57"/>
+    <mergeCell ref="C58:C60"/>
+    <mergeCell ref="A51:A64"/>
+    <mergeCell ref="B51:B54"/>
+    <mergeCell ref="C51:C54"/>
+    <mergeCell ref="F51:F54"/>
+    <mergeCell ref="F58:F60"/>
+    <mergeCell ref="D51:D54"/>
+    <mergeCell ref="E51:E54"/>
+    <mergeCell ref="G45:G47"/>
+    <mergeCell ref="C48:C50"/>
+    <mergeCell ref="F48:F50"/>
+    <mergeCell ref="G48:G50"/>
+    <mergeCell ref="B42:B50"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="F42:F44"/>
+    <mergeCell ref="G42:G44"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="F45:F47"/>
+    <mergeCell ref="D42:D44"/>
+    <mergeCell ref="E42:E44"/>
+    <mergeCell ref="D45:D47"/>
+    <mergeCell ref="E45:E47"/>
+    <mergeCell ref="D48:D50"/>
+    <mergeCell ref="E48:E50"/>
+    <mergeCell ref="F22:F25"/>
+    <mergeCell ref="G22:G25"/>
+    <mergeCell ref="D22:D25"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="C38:C41"/>
+    <mergeCell ref="F38:F41"/>
+    <mergeCell ref="G38:G41"/>
+    <mergeCell ref="D38:D41"/>
+    <mergeCell ref="E38:E41"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="F34:F37"/>
+    <mergeCell ref="G34:G37"/>
+    <mergeCell ref="E22:E25"/>
+    <mergeCell ref="D26:D29"/>
+    <mergeCell ref="E26:E29"/>
+    <mergeCell ref="D30:D33"/>
+    <mergeCell ref="E30:E33"/>
+    <mergeCell ref="D34:D37"/>
+    <mergeCell ref="E34:E37"/>
     <mergeCell ref="A9:A50"/>
     <mergeCell ref="B9:B17"/>
     <mergeCell ref="C9:C11"/>
@@ -2820,102 +2950,6 @@
     <mergeCell ref="G26:G29"/>
     <mergeCell ref="G18:G21"/>
     <mergeCell ref="C22:C25"/>
-    <mergeCell ref="F22:F25"/>
-    <mergeCell ref="G22:G25"/>
-    <mergeCell ref="D22:D25"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="C38:C41"/>
-    <mergeCell ref="F38:F41"/>
-    <mergeCell ref="G38:G41"/>
-    <mergeCell ref="D38:D41"/>
-    <mergeCell ref="E38:E41"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="F34:F37"/>
-    <mergeCell ref="G34:G37"/>
-    <mergeCell ref="E22:E25"/>
-    <mergeCell ref="D26:D29"/>
-    <mergeCell ref="E26:E29"/>
-    <mergeCell ref="D30:D33"/>
-    <mergeCell ref="E30:E33"/>
-    <mergeCell ref="D34:D37"/>
-    <mergeCell ref="E34:E37"/>
-    <mergeCell ref="G45:G47"/>
-    <mergeCell ref="C48:C50"/>
-    <mergeCell ref="F48:F50"/>
-    <mergeCell ref="G48:G50"/>
-    <mergeCell ref="B42:B50"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="F42:F44"/>
-    <mergeCell ref="G42:G44"/>
-    <mergeCell ref="C45:C47"/>
-    <mergeCell ref="F45:F47"/>
-    <mergeCell ref="D42:D44"/>
-    <mergeCell ref="E42:E44"/>
-    <mergeCell ref="D45:D47"/>
-    <mergeCell ref="E45:E47"/>
-    <mergeCell ref="D48:D50"/>
-    <mergeCell ref="E48:E50"/>
-    <mergeCell ref="G51:G54"/>
-    <mergeCell ref="B55:B60"/>
-    <mergeCell ref="C55:C57"/>
-    <mergeCell ref="F55:F57"/>
-    <mergeCell ref="G55:G57"/>
-    <mergeCell ref="C58:C60"/>
-    <mergeCell ref="A51:A64"/>
-    <mergeCell ref="B51:B54"/>
-    <mergeCell ref="C51:C54"/>
-    <mergeCell ref="F51:F54"/>
-    <mergeCell ref="F58:F60"/>
-    <mergeCell ref="D51:D54"/>
-    <mergeCell ref="E51:E54"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="D18:D21"/>
-    <mergeCell ref="E18:E21"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="D65:D67"/>
-    <mergeCell ref="E65:E67"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="C65:C67"/>
-    <mergeCell ref="F65:F67"/>
-    <mergeCell ref="C61:C64"/>
-    <mergeCell ref="F61:F64"/>
-    <mergeCell ref="D61:D64"/>
-    <mergeCell ref="E61:E64"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="F15:F17"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="D73:E73"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="F73:G73"/>
-    <mergeCell ref="F74:G74"/>
-    <mergeCell ref="D55:D57"/>
-    <mergeCell ref="E55:E57"/>
-    <mergeCell ref="D58:D60"/>
-    <mergeCell ref="E58:E60"/>
-    <mergeCell ref="A72:G72"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="C71:G71"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="C69:G69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="C70:G70"/>
-    <mergeCell ref="G65:G67"/>
-    <mergeCell ref="A65:A67"/>
-    <mergeCell ref="B65:B67"/>
-    <mergeCell ref="G58:G60"/>
-    <mergeCell ref="B61:B64"/>
-    <mergeCell ref="G61:G64"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2997,15 +3031,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DAFEF6EC0A8CF045B465905BC1BFEE78" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4463bcd27b22be3734d92135f9648bf6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4aeb20c0e3442673af7ee10786458764">
     <xsd:element name="properties">
@@ -3054,6 +3079,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{786271B0-769C-40AB-90D8-5921F1959857}">
   <ds:schemaRefs>
@@ -3069,14 +3103,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3B648F4-E72A-4E3D-8CAA-F11D5EF0F58F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D5E645F-9992-4EBD-9402-1E3B817C1828}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3089,4 +3115,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3B648F4-E72A-4E3D-8CAA-F11D5EF0F58F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/CR/CR/HNVN-HR-FM Project Performance CheckPoint Form_mantran.xlsx
+++ b/CR/CR/HNVN-HR-FM Project Performance CheckPoint Form_mantran.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr checkCompatibility="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="285" windowWidth="15480" windowHeight="8385"/>
+    <workbookView xWindow="360" yWindow="345" windowWidth="15480" windowHeight="8325"/>
   </bookViews>
   <sheets>
     <sheet name="Assessment" sheetId="6" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="83">
   <si>
     <t xml:space="preserve">Reviewed By: </t>
   </si>
@@ -389,15 +389,65 @@
     <t>ASE</t>
   </si>
   <si>
-    <t>- I have weekly report to direct manager, and I think it in a clear</t>
-  </si>
-  <si>
-    <t>- Sometime I have a ticket had problem which is affect the whole site, I fixed it and discuss with the one made the same ticket before change code. For example: 50457, 50461
+    <t>- My tickets are rarely do not pass CR.
+- When tickets were trigged to live, it seem well.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - I'm willing to get any ticket and try to finish asap.
+- I think I approaching a ticket quickly. For example: 50422</t>
+  </si>
+  <si>
+    <t>- I'm a new commer in project, so if I have issue, I must discuss with managers.
+- I can make decision for myself. For example: 52755, when I produce the tool scroller module, I'm so confuse with the old script, so I decise apply a new script.</t>
+  </si>
+  <si>
+    <t>- Sometime I have a ticket had problem which is affect the whole site, I fixed it and discuss with the one made the same ticket before change code. For example: 50457, 50461, 50422, when i produce i see a little bug in script.
 - When I help someone, I try to explain that problem so clear and does make that one misunderstand.</t>
   </si>
   <si>
-    <t xml:space="preserve"> - I'm willing to get any ticket and try to finish asap.
-I think I approaching a ticket quickly. For example: 50422</t>
+    <t>- Reading and writing skill are enough to producing all ticket.
+- My weakness is speaking and listening skill, in my project does not use it.</t>
+  </si>
+  <si>
+    <t>- I think my planning on each ticket is appropriate for new commer. For example: 50457 estimate 1 day, 51755 estimate for Latest gallery 1.5days</t>
+  </si>
+  <si>
+    <t>- As self-planning, sometime I finished it before, sometime after, but I think it normally. Plan is a plan, when we produces is difference.</t>
+  </si>
+  <si>
+    <t>- Several ticket does completed correctly estimate time, but it still in time allow. For example: 50149</t>
+  </si>
+  <si>
+    <t>- I finished my ticket follow request of that ticket, if QA add new request, I try to explain it not in my ticket request, then if QA does not allow, I call manager to explain it. And if my duty do it, I'm willing do it.</t>
+  </si>
+  <si>
+    <t>- At present, my job skill and knowledge are enough to producing ticket which I was done, but I need to improve knowledge about Magnus, html5 and css3</t>
+  </si>
+  <si>
+    <t>- When I produced ticket on site A, influence to crosssite , and another man have the same one, I usually discuss with one to complete these file in crosssite. For example: 50149, we discuss about code in xs_uk_markup_promo_player_v3.tmpl</t>
+  </si>
+  <si>
+    <t>- I have a good communication to anyone in almost member in Hearst also a little bit member in other project.
+- If anyone have idea about me, I'm willing to listen and appreciate that.</t>
+  </si>
+  <si>
+    <t>- Everytime, I try to improve my skill and do my best. For example: work hard, play hard, do homework.</t>
+  </si>
+  <si>
+    <t>- I'm new commer, so this point isn't used for another person.
+- But I apply to myself. For example: if I have 2 ticket at the moment, I'll do harder ticket at morning and easer ticket at afternoon</t>
+  </si>
+  <si>
+    <t>- Volunteer clear cache at night.
+- Joined to research Geolocation in html5.
+- Attend PingPong championship 2011.</t>
+  </si>
+  <si>
+    <t>- I have weekly report to direct manager, and I think it in a clear.
+- Use email or chat discuss about ticket I do. And everyone understand what's I mean.</t>
+  </si>
+  <si>
+    <t>- When I get a ticket, I'll discuss with CMO about that ticket, and usually my thinking had approved. For example: 51755, tool scroller or promo player.</t>
   </si>
 </sst>
 </file>
@@ -582,7 +632,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="45">
+  <borders count="44">
     <border>
       <left/>
       <right/>
@@ -847,19 +897,6 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -1137,7 +1174,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="144">
+  <cellXfs count="158">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -1173,7 +1210,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1194,375 +1231,429 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="6" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="6" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="9" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="13" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="12" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="8" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="11" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="10" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="7" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="7" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="8" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="9" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="7" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="7" borderId="22" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="7" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="9" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="9" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="7" borderId="22" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="7" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="8" borderId="13" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="8" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="8" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="22" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="2" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="8" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="11" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="11" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="10" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="10" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="5" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="9" borderId="13" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="9" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="9" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="10" borderId="13" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="10" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="10" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="12" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="12" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="13" borderId="22" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="13" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="6" borderId="9" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="6" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="6" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="12" borderId="13" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="11" borderId="13" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="11" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="11" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="22" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="5" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="5" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="5" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="12" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="9" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="9" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="12" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="6" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="6" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="13" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="7" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="7" borderId="13" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="7" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="7" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="6" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="6" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="13" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="7" borderId="22" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="7" borderId="22" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="22" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1991,8 +2082,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30:F33"/>
+    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12:F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2008,12 +2099,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="88" t="s">
+      <c r="C2" s="69" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
       <c r="G2" s="11"/>
     </row>
     <row r="3" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2023,10 +2114,10 @@
       <c r="C3" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="D3" s="89" t="s">
+      <c r="D3" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="89"/>
+      <c r="E3" s="72"/>
       <c r="F3" s="16" t="s">
         <v>64</v>
       </c>
@@ -2038,10 +2129,10 @@
       <c r="C4" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="D4" s="89" t="s">
+      <c r="D4" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="89"/>
+      <c r="E4" s="72"/>
       <c r="F4" s="16"/>
     </row>
     <row r="5" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2052,10 +2143,10 @@
       <c r="C5" s="30">
         <v>40610</v>
       </c>
-      <c r="D5" s="89" t="s">
+      <c r="D5" s="72" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="89"/>
+      <c r="E5" s="72"/>
       <c r="F5" s="16" t="s">
         <v>50</v>
       </c>
@@ -2069,21 +2160,21 @@
         <f>IF(E68&lt;1.6,"UNACCEPTABLE",IF(E68&lt;2,"NEED IMPROVEMENT",IF(E68&lt;2.5,"MEET EXPECTATION",IF(E68&lt;2.8,"EXCEED EXPECTATION","OUTSTANDING"))))</f>
         <v>MEET EXPECTATION</v>
       </c>
-      <c r="D6" s="89" t="s">
+      <c r="D6" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="89"/>
+      <c r="E6" s="72"/>
       <c r="F6" s="16"/>
     </row>
     <row r="7" spans="1:7" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="102"/>
-      <c r="C7" s="102"/>
-      <c r="D7" s="102"/>
-      <c r="E7" s="102"/>
-      <c r="F7" s="103" t="s">
+      <c r="B7" s="83"/>
+      <c r="C7" s="83"/>
+      <c r="D7" s="83"/>
+      <c r="E7" s="83"/>
+      <c r="F7" s="84" t="s">
         <v>43</v>
       </c>
-      <c r="G7" s="104"/>
+      <c r="G7" s="85"/>
     </row>
     <row r="8" spans="1:7" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="17" t="s">
@@ -2106,651 +2197,707 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="113" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="115" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="35" t="s">
+      <c r="C9" s="117" t="s">
         <v>52</v>
       </c>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43">
+      <c r="D9" s="77">
         <v>2</v>
       </c>
-      <c r="F9" s="40"/>
-      <c r="G9" s="36"/>
+      <c r="E9" s="77">
+        <v>2</v>
+      </c>
+      <c r="F9" s="155" t="s">
+        <v>82</v>
+      </c>
+      <c r="G9" s="118"/>
     </row>
     <row r="10" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="32"/>
-      <c r="B10" s="34"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="36"/>
+      <c r="A10" s="114"/>
+      <c r="B10" s="116"/>
+      <c r="C10" s="117"/>
+      <c r="D10" s="77"/>
+      <c r="E10" s="77"/>
+      <c r="F10" s="156"/>
+      <c r="G10" s="118"/>
     </row>
     <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="32"/>
-      <c r="B11" s="34"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="36"/>
+      <c r="A11" s="114"/>
+      <c r="B11" s="116"/>
+      <c r="C11" s="117"/>
+      <c r="D11" s="77"/>
+      <c r="E11" s="77"/>
+      <c r="F11" s="157"/>
+      <c r="G11" s="118"/>
     </row>
     <row r="12" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="32"/>
-      <c r="B12" s="34"/>
-      <c r="C12" s="41" t="s">
+      <c r="A12" s="114"/>
+      <c r="B12" s="116"/>
+      <c r="C12" s="82" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="43">
+      <c r="D12" s="77">
         <v>2</v>
       </c>
-      <c r="E12" s="44">
+      <c r="E12" s="70">
         <v>2</v>
       </c>
-      <c r="F12" s="142" t="s">
+      <c r="F12" s="126" t="s">
+        <v>81</v>
+      </c>
+      <c r="G12" s="118"/>
+    </row>
+    <row r="13" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="114"/>
+      <c r="B13" s="116"/>
+      <c r="C13" s="82"/>
+      <c r="D13" s="77"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="127"/>
+      <c r="G13" s="118"/>
+    </row>
+    <row r="14" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="114"/>
+      <c r="B14" s="116"/>
+      <c r="C14" s="82"/>
+      <c r="D14" s="77"/>
+      <c r="E14" s="70"/>
+      <c r="F14" s="127"/>
+      <c r="G14" s="118"/>
+    </row>
+    <row r="15" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="114"/>
+      <c r="B15" s="116"/>
+      <c r="C15" s="82" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="70">
+        <v>2</v>
+      </c>
+      <c r="E15" s="70">
+        <v>2</v>
+      </c>
+      <c r="F15" s="128" t="s">
+        <v>69</v>
+      </c>
+      <c r="G15" s="118"/>
+    </row>
+    <row r="16" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="114"/>
+      <c r="B16" s="116"/>
+      <c r="C16" s="82"/>
+      <c r="D16" s="70"/>
+      <c r="E16" s="70"/>
+      <c r="F16" s="129"/>
+      <c r="G16" s="118"/>
+    </row>
+    <row r="17" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="114"/>
+      <c r="B17" s="116"/>
+      <c r="C17" s="82"/>
+      <c r="D17" s="70"/>
+      <c r="E17" s="70"/>
+      <c r="F17" s="129"/>
+      <c r="G17" s="118"/>
+    </row>
+    <row r="18" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="114"/>
+      <c r="B18" s="119" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="120" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="71">
+        <v>3</v>
+      </c>
+      <c r="E18" s="71">
+        <v>2</v>
+      </c>
+      <c r="F18" s="130" t="s">
+        <v>71</v>
+      </c>
+      <c r="G18" s="103"/>
+    </row>
+    <row r="19" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="114"/>
+      <c r="B19" s="119"/>
+      <c r="C19" s="120"/>
+      <c r="D19" s="71"/>
+      <c r="E19" s="71"/>
+      <c r="F19" s="131"/>
+      <c r="G19" s="103"/>
+    </row>
+    <row r="20" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="114"/>
+      <c r="B20" s="119"/>
+      <c r="C20" s="120"/>
+      <c r="D20" s="71"/>
+      <c r="E20" s="71"/>
+      <c r="F20" s="131"/>
+      <c r="G20" s="103"/>
+    </row>
+    <row r="21" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="114"/>
+      <c r="B21" s="119"/>
+      <c r="C21" s="120"/>
+      <c r="D21" s="71"/>
+      <c r="E21" s="71"/>
+      <c r="F21" s="132"/>
+      <c r="G21" s="103"/>
+    </row>
+    <row r="22" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="114"/>
+      <c r="B22" s="119"/>
+      <c r="C22" s="120" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" s="71">
+        <v>2</v>
+      </c>
+      <c r="E22" s="71">
+        <v>2</v>
+      </c>
+      <c r="F22" s="130" t="s">
+        <v>72</v>
+      </c>
+      <c r="G22" s="103"/>
+    </row>
+    <row r="23" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="114"/>
+      <c r="B23" s="119"/>
+      <c r="C23" s="120"/>
+      <c r="D23" s="71"/>
+      <c r="E23" s="71"/>
+      <c r="F23" s="131"/>
+      <c r="G23" s="103"/>
+    </row>
+    <row r="24" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="114"/>
+      <c r="B24" s="119"/>
+      <c r="C24" s="120"/>
+      <c r="D24" s="71"/>
+      <c r="E24" s="71"/>
+      <c r="F24" s="131"/>
+      <c r="G24" s="103"/>
+    </row>
+    <row r="25" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="114"/>
+      <c r="B25" s="119"/>
+      <c r="C25" s="120"/>
+      <c r="D25" s="71"/>
+      <c r="E25" s="71"/>
+      <c r="F25" s="132"/>
+      <c r="G25" s="103"/>
+    </row>
+    <row r="26" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="114"/>
+      <c r="B26" s="123" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="124" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" s="111">
+        <v>3</v>
+      </c>
+      <c r="E26" s="111">
+        <v>2</v>
+      </c>
+      <c r="F26" s="133" t="s">
+        <v>67</v>
+      </c>
+      <c r="G26" s="125"/>
+    </row>
+    <row r="27" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="114"/>
+      <c r="B27" s="123"/>
+      <c r="C27" s="124"/>
+      <c r="D27" s="111"/>
+      <c r="E27" s="111"/>
+      <c r="F27" s="134"/>
+      <c r="G27" s="125"/>
+    </row>
+    <row r="28" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="114"/>
+      <c r="B28" s="123"/>
+      <c r="C28" s="124"/>
+      <c r="D28" s="111"/>
+      <c r="E28" s="111"/>
+      <c r="F28" s="134"/>
+      <c r="G28" s="125"/>
+    </row>
+    <row r="29" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="114"/>
+      <c r="B29" s="123"/>
+      <c r="C29" s="124"/>
+      <c r="D29" s="111"/>
+      <c r="E29" s="111"/>
+      <c r="F29" s="134"/>
+      <c r="G29" s="125"/>
+    </row>
+    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="114"/>
+      <c r="B30" s="121" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" s="89" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" s="41">
+        <v>3</v>
+      </c>
+      <c r="E30" s="41">
+        <v>2</v>
+      </c>
+      <c r="F30" s="135" t="s">
+        <v>68</v>
+      </c>
+      <c r="G30" s="122"/>
+    </row>
+    <row r="31" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="114"/>
+      <c r="B31" s="121"/>
+      <c r="C31" s="89"/>
+      <c r="D31" s="41"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="136"/>
+      <c r="G31" s="122"/>
+    </row>
+    <row r="32" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="114"/>
+      <c r="B32" s="121"/>
+      <c r="C32" s="89"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="136"/>
+      <c r="G32" s="122"/>
+    </row>
+    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="114"/>
+      <c r="B33" s="121"/>
+      <c r="C33" s="89"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="41"/>
+      <c r="F33" s="137"/>
+      <c r="G33" s="122"/>
+    </row>
+    <row r="34" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="114"/>
+      <c r="B34" s="108" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" s="109" t="s">
+        <v>57</v>
+      </c>
+      <c r="D34" s="112">
+        <v>2</v>
+      </c>
+      <c r="E34" s="112">
+        <v>2</v>
+      </c>
+      <c r="F34" s="138" t="s">
+        <v>74</v>
+      </c>
+      <c r="G34" s="110"/>
+    </row>
+    <row r="35" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="114"/>
+      <c r="B35" s="108"/>
+      <c r="C35" s="109"/>
+      <c r="D35" s="112"/>
+      <c r="E35" s="112"/>
+      <c r="F35" s="139"/>
+      <c r="G35" s="110"/>
+    </row>
+    <row r="36" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="114"/>
+      <c r="B36" s="108"/>
+      <c r="C36" s="109"/>
+      <c r="D36" s="112"/>
+      <c r="E36" s="112"/>
+      <c r="F36" s="139"/>
+      <c r="G36" s="110"/>
+    </row>
+    <row r="37" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="114"/>
+      <c r="B37" s="108"/>
+      <c r="C37" s="109"/>
+      <c r="D37" s="112"/>
+      <c r="E37" s="112"/>
+      <c r="F37" s="140"/>
+      <c r="G37" s="110"/>
+    </row>
+    <row r="38" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="114"/>
+      <c r="B38" s="104" t="s">
+        <v>29</v>
+      </c>
+      <c r="C38" s="105" t="s">
+        <v>56</v>
+      </c>
+      <c r="D38" s="107">
+        <v>2</v>
+      </c>
+      <c r="E38" s="107">
+        <v>2</v>
+      </c>
+      <c r="F38" s="149" t="s">
+        <v>76</v>
+      </c>
+      <c r="G38" s="106"/>
+    </row>
+    <row r="39" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="114"/>
+      <c r="B39" s="104"/>
+      <c r="C39" s="105"/>
+      <c r="D39" s="107"/>
+      <c r="E39" s="107"/>
+      <c r="F39" s="150"/>
+      <c r="G39" s="106"/>
+    </row>
+    <row r="40" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="114"/>
+      <c r="B40" s="104"/>
+      <c r="C40" s="105"/>
+      <c r="D40" s="107"/>
+      <c r="E40" s="107"/>
+      <c r="F40" s="150"/>
+      <c r="G40" s="106"/>
+    </row>
+    <row r="41" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="114"/>
+      <c r="B41" s="104"/>
+      <c r="C41" s="105"/>
+      <c r="D41" s="107"/>
+      <c r="E41" s="107"/>
+      <c r="F41" s="151"/>
+      <c r="G41" s="106"/>
+    </row>
+    <row r="42" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="114"/>
+      <c r="B42" s="99" t="s">
+        <v>30</v>
+      </c>
+      <c r="C42" s="96" t="s">
+        <v>58</v>
+      </c>
+      <c r="D42" s="101">
+        <v>3</v>
+      </c>
+      <c r="E42" s="101">
+        <v>2</v>
+      </c>
+      <c r="F42" s="152" t="s">
+        <v>77</v>
+      </c>
+      <c r="G42" s="95"/>
+    </row>
+    <row r="43" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="114"/>
+      <c r="B43" s="99"/>
+      <c r="C43" s="96"/>
+      <c r="D43" s="101"/>
+      <c r="E43" s="101"/>
+      <c r="F43" s="153"/>
+      <c r="G43" s="95"/>
+    </row>
+    <row r="44" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="114"/>
+      <c r="B44" s="99"/>
+      <c r="C44" s="96"/>
+      <c r="D44" s="101"/>
+      <c r="E44" s="101"/>
+      <c r="F44" s="153"/>
+      <c r="G44" s="95"/>
+    </row>
+    <row r="45" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="114"/>
+      <c r="B45" s="99"/>
+      <c r="C45" s="96" t="s">
+        <v>59</v>
+      </c>
+      <c r="D45" s="101">
+        <v>2</v>
+      </c>
+      <c r="E45" s="101">
+        <v>2</v>
+      </c>
+      <c r="F45" s="152" t="s">
+        <v>79</v>
+      </c>
+      <c r="G45" s="95"/>
+    </row>
+    <row r="46" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="114"/>
+      <c r="B46" s="99"/>
+      <c r="C46" s="96"/>
+      <c r="D46" s="101"/>
+      <c r="E46" s="101"/>
+      <c r="F46" s="153"/>
+      <c r="G46" s="95"/>
+    </row>
+    <row r="47" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="114"/>
+      <c r="B47" s="99"/>
+      <c r="C47" s="96"/>
+      <c r="D47" s="101"/>
+      <c r="E47" s="101"/>
+      <c r="F47" s="153"/>
+      <c r="G47" s="95"/>
+    </row>
+    <row r="48" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="114"/>
+      <c r="B48" s="99"/>
+      <c r="C48" s="96" t="s">
+        <v>60</v>
+      </c>
+      <c r="D48" s="101">
+        <v>2</v>
+      </c>
+      <c r="E48" s="101">
+        <v>2</v>
+      </c>
+      <c r="F48" s="152" t="s">
+        <v>78</v>
+      </c>
+      <c r="G48" s="95"/>
+    </row>
+    <row r="49" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="114"/>
+      <c r="B49" s="99"/>
+      <c r="C49" s="96"/>
+      <c r="D49" s="101"/>
+      <c r="E49" s="101"/>
+      <c r="F49" s="153"/>
+      <c r="G49" s="95"/>
+    </row>
+    <row r="50" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="114"/>
+      <c r="B50" s="100"/>
+      <c r="C50" s="97"/>
+      <c r="D50" s="102"/>
+      <c r="E50" s="102"/>
+      <c r="F50" s="154"/>
+      <c r="G50" s="98"/>
+    </row>
+    <row r="51" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="90" t="s">
+        <v>31</v>
+      </c>
+      <c r="B51" s="92" t="s">
+        <v>2</v>
+      </c>
+      <c r="C51" s="93" t="s">
+        <v>42</v>
+      </c>
+      <c r="D51" s="94">
+        <v>3</v>
+      </c>
+      <c r="E51" s="94">
+        <v>2</v>
+      </c>
+      <c r="F51" s="148" t="s">
+        <v>75</v>
+      </c>
+      <c r="G51" s="86"/>
+    </row>
+    <row r="52" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="91"/>
+      <c r="B52" s="92"/>
+      <c r="C52" s="93"/>
+      <c r="D52" s="94"/>
+      <c r="E52" s="94"/>
+      <c r="F52" s="141"/>
+      <c r="G52" s="86"/>
+    </row>
+    <row r="53" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="91"/>
+      <c r="B53" s="92"/>
+      <c r="C53" s="93"/>
+      <c r="D53" s="94"/>
+      <c r="E53" s="94"/>
+      <c r="F53" s="141"/>
+      <c r="G53" s="86"/>
+    </row>
+    <row r="54" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="91"/>
+      <c r="B54" s="92"/>
+      <c r="C54" s="93"/>
+      <c r="D54" s="94"/>
+      <c r="E54" s="94"/>
+      <c r="F54" s="142"/>
+      <c r="G54" s="86"/>
+    </row>
+    <row r="55" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="91"/>
+      <c r="B55" s="87" t="s">
+        <v>7</v>
+      </c>
+      <c r="C55" s="89" t="s">
+        <v>41</v>
+      </c>
+      <c r="D55" s="41">
+        <v>2</v>
+      </c>
+      <c r="E55" s="41">
+        <v>2</v>
+      </c>
+      <c r="F55" s="135" t="s">
+        <v>73</v>
+      </c>
+      <c r="G55" s="66"/>
+    </row>
+    <row r="56" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="91"/>
+      <c r="B56" s="88"/>
+      <c r="C56" s="89"/>
+      <c r="D56" s="41"/>
+      <c r="E56" s="41"/>
+      <c r="F56" s="136"/>
+      <c r="G56" s="66"/>
+    </row>
+    <row r="57" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="91"/>
+      <c r="B57" s="88"/>
+      <c r="C57" s="89"/>
+      <c r="D57" s="41"/>
+      <c r="E57" s="41"/>
+      <c r="F57" s="137"/>
+      <c r="G57" s="66"/>
+    </row>
+    <row r="58" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="91"/>
+      <c r="B58" s="88"/>
+      <c r="C58" s="89" t="s">
+        <v>6</v>
+      </c>
+      <c r="D58" s="41">
+        <v>2</v>
+      </c>
+      <c r="E58" s="41">
+        <v>2</v>
+      </c>
+      <c r="F58" s="135" t="s">
+        <v>80</v>
+      </c>
+      <c r="G58" s="66"/>
+    </row>
+    <row r="59" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="91"/>
+      <c r="B59" s="88"/>
+      <c r="C59" s="89"/>
+      <c r="D59" s="41"/>
+      <c r="E59" s="41"/>
+      <c r="F59" s="136"/>
+      <c r="G59" s="66"/>
+    </row>
+    <row r="60" spans="1:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="91"/>
+      <c r="B60" s="88"/>
+      <c r="C60" s="89"/>
+      <c r="D60" s="41"/>
+      <c r="E60" s="41"/>
+      <c r="F60" s="137"/>
+      <c r="G60" s="66"/>
+    </row>
+    <row r="61" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="91"/>
+      <c r="B61" s="67" t="s">
+        <v>5</v>
+      </c>
+      <c r="C61" s="80" t="s">
+        <v>61</v>
+      </c>
+      <c r="D61" s="81">
+        <v>2</v>
+      </c>
+      <c r="E61" s="81">
+        <v>2</v>
+      </c>
+      <c r="F61" s="143" t="s">
         <v>66</v>
       </c>
-      <c r="G12" s="36"/>
-    </row>
-    <row r="13" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="32"/>
-      <c r="B13" s="34"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="36"/>
-    </row>
-    <row r="14" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="32"/>
-      <c r="B14" s="34"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="36"/>
-    </row>
-    <row r="15" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="32"/>
-      <c r="B15" s="34"/>
-      <c r="C15" s="41" t="s">
-        <v>51</v>
-      </c>
-      <c r="D15" s="44">
+      <c r="G61" s="68"/>
+    </row>
+    <row r="62" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="91"/>
+      <c r="B62" s="67"/>
+      <c r="C62" s="80"/>
+      <c r="D62" s="81"/>
+      <c r="E62" s="81"/>
+      <c r="F62" s="144"/>
+      <c r="G62" s="68"/>
+    </row>
+    <row r="63" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="91"/>
+      <c r="B63" s="67"/>
+      <c r="C63" s="80"/>
+      <c r="D63" s="81"/>
+      <c r="E63" s="81"/>
+      <c r="F63" s="144"/>
+      <c r="G63" s="68"/>
+    </row>
+    <row r="64" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="91"/>
+      <c r="B64" s="67"/>
+      <c r="C64" s="80"/>
+      <c r="D64" s="81"/>
+      <c r="E64" s="81"/>
+      <c r="F64" s="144"/>
+      <c r="G64" s="68"/>
+    </row>
+    <row r="65" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="62" t="s">
+        <v>32</v>
+      </c>
+      <c r="B65" s="64" t="s">
+        <v>33</v>
+      </c>
+      <c r="C65" s="78" t="s">
+        <v>34</v>
+      </c>
+      <c r="D65" s="74">
         <v>2</v>
       </c>
-      <c r="E15" s="44">
+      <c r="E65" s="74">
         <v>2</v>
       </c>
-      <c r="F15" s="141" t="s">
-        <v>67</v>
-      </c>
-      <c r="G15" s="36"/>
-    </row>
-    <row r="16" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="32"/>
-      <c r="B16" s="34"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="101"/>
-      <c r="G16" s="36"/>
-    </row>
-    <row r="17" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="32"/>
-      <c r="B17" s="34"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="101"/>
-      <c r="G17" s="36"/>
-    </row>
-    <row r="18" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="32"/>
-      <c r="B18" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="D18" s="54"/>
-      <c r="E18" s="54">
-        <v>2</v>
-      </c>
-      <c r="F18" s="39"/>
-      <c r="G18" s="53"/>
-    </row>
-    <row r="19" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="32"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="54"/>
-      <c r="E19" s="54"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="53"/>
-    </row>
-    <row r="20" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="32"/>
-      <c r="B20" s="37"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="54"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="53"/>
-    </row>
-    <row r="21" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="32"/>
-      <c r="B21" s="37"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="54"/>
-      <c r="E21" s="54"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="53"/>
-    </row>
-    <row r="22" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="32"/>
-      <c r="B22" s="37"/>
-      <c r="C22" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="D22" s="54"/>
-      <c r="E22" s="54">
-        <v>2</v>
-      </c>
-      <c r="F22" s="39"/>
-      <c r="G22" s="53"/>
-    </row>
-    <row r="23" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="32"/>
-      <c r="B23" s="37"/>
-      <c r="C23" s="38"/>
-      <c r="D23" s="54"/>
-      <c r="E23" s="54"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="53"/>
-    </row>
-    <row r="24" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="32"/>
-      <c r="B24" s="37"/>
-      <c r="C24" s="38"/>
-      <c r="D24" s="54"/>
-      <c r="E24" s="54"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="53"/>
-    </row>
-    <row r="25" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="32"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="54"/>
-      <c r="E25" s="54"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="53"/>
-    </row>
-    <row r="26" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="32"/>
-      <c r="B26" s="49" t="s">
-        <v>4</v>
-      </c>
-      <c r="C26" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="D26" s="64">
-        <v>2</v>
-      </c>
-      <c r="E26" s="64">
-        <v>2</v>
-      </c>
-      <c r="F26" s="143" t="s">
-        <v>68</v>
-      </c>
-      <c r="G26" s="52"/>
-    </row>
-    <row r="27" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="32"/>
-      <c r="B27" s="49"/>
-      <c r="C27" s="50"/>
-      <c r="D27" s="64"/>
-      <c r="E27" s="64"/>
-      <c r="F27" s="51"/>
-      <c r="G27" s="52"/>
-    </row>
-    <row r="28" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="32"/>
-      <c r="B28" s="49"/>
-      <c r="C28" s="50"/>
-      <c r="D28" s="64"/>
-      <c r="E28" s="64"/>
-      <c r="F28" s="51"/>
-      <c r="G28" s="52"/>
-    </row>
-    <row r="29" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="32"/>
-      <c r="B29" s="49"/>
-      <c r="C29" s="50"/>
-      <c r="D29" s="64"/>
-      <c r="E29" s="64"/>
-      <c r="F29" s="51"/>
-      <c r="G29" s="52"/>
-    </row>
-    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="32"/>
-      <c r="B30" s="45" t="s">
-        <v>26</v>
-      </c>
-      <c r="C30" s="46" t="s">
-        <v>27</v>
-      </c>
-      <c r="D30" s="65"/>
-      <c r="E30" s="65">
-        <v>2</v>
-      </c>
-      <c r="F30" s="47"/>
-      <c r="G30" s="48"/>
-    </row>
-    <row r="31" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="32"/>
-      <c r="B31" s="45"/>
-      <c r="C31" s="46"/>
-      <c r="D31" s="65"/>
-      <c r="E31" s="65"/>
-      <c r="F31" s="47"/>
-      <c r="G31" s="48"/>
-    </row>
-    <row r="32" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="32"/>
-      <c r="B32" s="45"/>
-      <c r="C32" s="46"/>
-      <c r="D32" s="65"/>
-      <c r="E32" s="65"/>
-      <c r="F32" s="47"/>
-      <c r="G32" s="48"/>
-    </row>
-    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="32"/>
-      <c r="B33" s="45"/>
-      <c r="C33" s="46"/>
-      <c r="D33" s="65"/>
-      <c r="E33" s="65"/>
-      <c r="F33" s="47"/>
-      <c r="G33" s="48"/>
-    </row>
-    <row r="34" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="32"/>
-      <c r="B34" s="60" t="s">
-        <v>28</v>
-      </c>
-      <c r="C34" s="61" t="s">
-        <v>57</v>
-      </c>
-      <c r="D34" s="66"/>
-      <c r="E34" s="66">
-        <v>2</v>
-      </c>
-      <c r="F34" s="62"/>
-      <c r="G34" s="63"/>
-    </row>
-    <row r="35" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="32"/>
-      <c r="B35" s="60"/>
-      <c r="C35" s="61"/>
-      <c r="D35" s="66"/>
-      <c r="E35" s="66"/>
-      <c r="F35" s="62"/>
-      <c r="G35" s="63"/>
-    </row>
-    <row r="36" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="32"/>
-      <c r="B36" s="60"/>
-      <c r="C36" s="61"/>
-      <c r="D36" s="66"/>
-      <c r="E36" s="66"/>
-      <c r="F36" s="62"/>
-      <c r="G36" s="63"/>
-    </row>
-    <row r="37" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="32"/>
-      <c r="B37" s="60"/>
-      <c r="C37" s="61"/>
-      <c r="D37" s="66"/>
-      <c r="E37" s="66"/>
-      <c r="F37" s="62"/>
-      <c r="G37" s="63"/>
-    </row>
-    <row r="38" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="32"/>
-      <c r="B38" s="55" t="s">
-        <v>29</v>
-      </c>
-      <c r="C38" s="56" t="s">
-        <v>56</v>
-      </c>
-      <c r="D38" s="59"/>
-      <c r="E38" s="59">
-        <v>2</v>
-      </c>
-      <c r="F38" s="57"/>
-      <c r="G38" s="58"/>
-    </row>
-    <row r="39" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="32"/>
-      <c r="B39" s="55"/>
-      <c r="C39" s="56"/>
-      <c r="D39" s="59"/>
-      <c r="E39" s="59"/>
-      <c r="F39" s="57"/>
-      <c r="G39" s="58"/>
-    </row>
-    <row r="40" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="32"/>
-      <c r="B40" s="55"/>
-      <c r="C40" s="56"/>
-      <c r="D40" s="59"/>
-      <c r="E40" s="59"/>
-      <c r="F40" s="57"/>
-      <c r="G40" s="58"/>
-    </row>
-    <row r="41" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="32"/>
-      <c r="B41" s="55"/>
-      <c r="C41" s="56"/>
-      <c r="D41" s="59"/>
-      <c r="E41" s="59"/>
-      <c r="F41" s="57"/>
-      <c r="G41" s="58"/>
-    </row>
-    <row r="42" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="32"/>
-      <c r="B42" s="73" t="s">
-        <v>30</v>
-      </c>
-      <c r="C42" s="68" t="s">
-        <v>58</v>
-      </c>
-      <c r="D42" s="75"/>
-      <c r="E42" s="75">
-        <v>2</v>
-      </c>
-      <c r="F42" s="70"/>
-      <c r="G42" s="67"/>
-    </row>
-    <row r="43" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="32"/>
-      <c r="B43" s="73"/>
-      <c r="C43" s="68"/>
-      <c r="D43" s="75"/>
-      <c r="E43" s="75"/>
-      <c r="F43" s="70"/>
-      <c r="G43" s="67"/>
-    </row>
-    <row r="44" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="32"/>
-      <c r="B44" s="73"/>
-      <c r="C44" s="68"/>
-      <c r="D44" s="75"/>
-      <c r="E44" s="75"/>
-      <c r="F44" s="70"/>
-      <c r="G44" s="67"/>
-    </row>
-    <row r="45" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="32"/>
-      <c r="B45" s="73"/>
-      <c r="C45" s="68" t="s">
-        <v>59</v>
-      </c>
-      <c r="D45" s="75"/>
-      <c r="E45" s="75">
-        <v>2</v>
-      </c>
-      <c r="F45" s="70"/>
-      <c r="G45" s="67"/>
-    </row>
-    <row r="46" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="32"/>
-      <c r="B46" s="73"/>
-      <c r="C46" s="68"/>
-      <c r="D46" s="75"/>
-      <c r="E46" s="75"/>
-      <c r="F46" s="70"/>
-      <c r="G46" s="67"/>
-    </row>
-    <row r="47" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="32"/>
-      <c r="B47" s="73"/>
-      <c r="C47" s="68"/>
-      <c r="D47" s="75"/>
-      <c r="E47" s="75"/>
-      <c r="F47" s="70"/>
-      <c r="G47" s="67"/>
-    </row>
-    <row r="48" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="32"/>
-      <c r="B48" s="73"/>
-      <c r="C48" s="68" t="s">
-        <v>60</v>
-      </c>
-      <c r="D48" s="75"/>
-      <c r="E48" s="75">
-        <v>2</v>
-      </c>
-      <c r="F48" s="70"/>
-      <c r="G48" s="67"/>
-    </row>
-    <row r="49" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="32"/>
-      <c r="B49" s="73"/>
-      <c r="C49" s="68"/>
-      <c r="D49" s="75"/>
-      <c r="E49" s="75"/>
-      <c r="F49" s="70"/>
-      <c r="G49" s="67"/>
-    </row>
-    <row r="50" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="32"/>
-      <c r="B50" s="74"/>
-      <c r="C50" s="69"/>
-      <c r="D50" s="76"/>
-      <c r="E50" s="76"/>
-      <c r="F50" s="71"/>
-      <c r="G50" s="72"/>
-    </row>
-    <row r="51" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="82" t="s">
-        <v>31</v>
-      </c>
-      <c r="B51" s="84" t="s">
-        <v>2</v>
-      </c>
-      <c r="C51" s="85" t="s">
-        <v>42</v>
-      </c>
-      <c r="D51" s="87"/>
-      <c r="E51" s="87">
-        <v>2</v>
-      </c>
-      <c r="F51" s="86"/>
-      <c r="G51" s="77"/>
-    </row>
-    <row r="52" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="83"/>
-      <c r="B52" s="84"/>
-      <c r="C52" s="85"/>
-      <c r="D52" s="87"/>
-      <c r="E52" s="87"/>
-      <c r="F52" s="86"/>
-      <c r="G52" s="77"/>
-    </row>
-    <row r="53" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="83"/>
-      <c r="B53" s="84"/>
-      <c r="C53" s="85"/>
-      <c r="D53" s="87"/>
-      <c r="E53" s="87"/>
-      <c r="F53" s="86"/>
-      <c r="G53" s="77"/>
-    </row>
-    <row r="54" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="83"/>
-      <c r="B54" s="84"/>
-      <c r="C54" s="85"/>
-      <c r="D54" s="87"/>
-      <c r="E54" s="87"/>
-      <c r="F54" s="86"/>
-      <c r="G54" s="77"/>
-    </row>
-    <row r="55" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="83"/>
-      <c r="B55" s="78" t="s">
-        <v>7</v>
-      </c>
-      <c r="C55" s="46" t="s">
-        <v>41</v>
-      </c>
-      <c r="D55" s="65"/>
-      <c r="E55" s="65">
-        <v>2</v>
-      </c>
-      <c r="F55" s="80"/>
-      <c r="G55" s="81"/>
-    </row>
-    <row r="56" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="83"/>
-      <c r="B56" s="79"/>
-      <c r="C56" s="46"/>
-      <c r="D56" s="65"/>
-      <c r="E56" s="65"/>
-      <c r="F56" s="80"/>
-      <c r="G56" s="81"/>
-    </row>
-    <row r="57" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="83"/>
-      <c r="B57" s="79"/>
-      <c r="C57" s="46"/>
-      <c r="D57" s="65"/>
-      <c r="E57" s="65"/>
-      <c r="F57" s="80"/>
-      <c r="G57" s="81"/>
-    </row>
-    <row r="58" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="83"/>
-      <c r="B58" s="79"/>
-      <c r="C58" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="D58" s="65"/>
-      <c r="E58" s="65">
-        <v>2</v>
-      </c>
-      <c r="F58" s="80"/>
-      <c r="G58" s="81"/>
-    </row>
-    <row r="59" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="83"/>
-      <c r="B59" s="79"/>
-      <c r="C59" s="46"/>
-      <c r="D59" s="65"/>
-      <c r="E59" s="65"/>
-      <c r="F59" s="80"/>
-      <c r="G59" s="81"/>
-    </row>
-    <row r="60" spans="1:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="83"/>
-      <c r="B60" s="79"/>
-      <c r="C60" s="46"/>
-      <c r="D60" s="65"/>
-      <c r="E60" s="65"/>
-      <c r="F60" s="80"/>
-      <c r="G60" s="81"/>
-    </row>
-    <row r="61" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="83"/>
-      <c r="B61" s="139" t="s">
-        <v>5</v>
-      </c>
-      <c r="C61" s="98" t="s">
-        <v>61</v>
-      </c>
-      <c r="D61" s="100"/>
-      <c r="E61" s="100">
-        <v>2</v>
-      </c>
-      <c r="F61" s="99"/>
-      <c r="G61" s="140"/>
-    </row>
-    <row r="62" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="83"/>
-      <c r="B62" s="139"/>
-      <c r="C62" s="98"/>
-      <c r="D62" s="100"/>
-      <c r="E62" s="100"/>
-      <c r="F62" s="99"/>
-      <c r="G62" s="140"/>
-    </row>
-    <row r="63" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="83"/>
-      <c r="B63" s="139"/>
-      <c r="C63" s="98"/>
-      <c r="D63" s="100"/>
-      <c r="E63" s="100"/>
-      <c r="F63" s="99"/>
-      <c r="G63" s="140"/>
-    </row>
-    <row r="64" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="83"/>
-      <c r="B64" s="139"/>
-      <c r="C64" s="98"/>
-      <c r="D64" s="100"/>
-      <c r="E64" s="100"/>
-      <c r="F64" s="99"/>
-      <c r="G64" s="140"/>
-    </row>
-    <row r="65" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="135" t="s">
-        <v>32</v>
-      </c>
-      <c r="B65" s="137" t="s">
-        <v>33</v>
-      </c>
-      <c r="C65" s="94" t="s">
-        <v>34</v>
-      </c>
-      <c r="D65" s="91"/>
-      <c r="E65" s="91">
-        <v>2</v>
-      </c>
-      <c r="F65" s="96"/>
-      <c r="G65" s="133"/>
+      <c r="F65" s="145" t="s">
+        <v>70</v>
+      </c>
+      <c r="G65" s="60"/>
     </row>
     <row r="66" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="135"/>
-      <c r="B66" s="137"/>
-      <c r="C66" s="94"/>
-      <c r="D66" s="92"/>
-      <c r="E66" s="92"/>
-      <c r="F66" s="96"/>
-      <c r="G66" s="133"/>
+      <c r="A66" s="62"/>
+      <c r="B66" s="64"/>
+      <c r="C66" s="78"/>
+      <c r="D66" s="75"/>
+      <c r="E66" s="75"/>
+      <c r="F66" s="146"/>
+      <c r="G66" s="60"/>
     </row>
     <row r="67" spans="1:7" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="136"/>
-      <c r="B67" s="138"/>
-      <c r="C67" s="95"/>
-      <c r="D67" s="93"/>
-      <c r="E67" s="93"/>
-      <c r="F67" s="97"/>
-      <c r="G67" s="134"/>
+      <c r="A67" s="63"/>
+      <c r="B67" s="65"/>
+      <c r="C67" s="79"/>
+      <c r="D67" s="76"/>
+      <c r="E67" s="76"/>
+      <c r="F67" s="147"/>
+      <c r="G67" s="61"/>
     </row>
     <row r="68" spans="1:7" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A68" s="15"/>
       <c r="B68" s="22"/>
-      <c r="C68" s="90" t="s">
+      <c r="C68" s="73" t="s">
         <v>36</v>
       </c>
-      <c r="D68" s="90"/>
+      <c r="D68" s="73"/>
       <c r="E68" s="26">
         <f>AVERAGE(E9:E67,E51,E51,E51,E51,E61,E61)</f>
         <v>2</v>
@@ -2759,100 +2906,150 @@
       <c r="G68" s="24"/>
     </row>
     <row r="69" spans="1:7" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="123" t="s">
+      <c r="A69" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="B69" s="124"/>
-      <c r="C69" s="125"/>
-      <c r="D69" s="126"/>
-      <c r="E69" s="126"/>
-      <c r="F69" s="126"/>
-      <c r="G69" s="127"/>
+      <c r="B69" s="51"/>
+      <c r="C69" s="52"/>
+      <c r="D69" s="53"/>
+      <c r="E69" s="53"/>
+      <c r="F69" s="53"/>
+      <c r="G69" s="54"/>
     </row>
     <row r="70" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="128" t="s">
+      <c r="A70" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="B70" s="129"/>
-      <c r="C70" s="130"/>
-      <c r="D70" s="131"/>
-      <c r="E70" s="131"/>
-      <c r="F70" s="131"/>
-      <c r="G70" s="132"/>
+      <c r="B70" s="56"/>
+      <c r="C70" s="57"/>
+      <c r="D70" s="58"/>
+      <c r="E70" s="58"/>
+      <c r="F70" s="58"/>
+      <c r="G70" s="59"/>
     </row>
     <row r="71" spans="1:7" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="118" t="s">
+      <c r="A71" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="B71" s="119"/>
-      <c r="C71" s="120"/>
-      <c r="D71" s="121"/>
-      <c r="E71" s="121"/>
-      <c r="F71" s="121"/>
-      <c r="G71" s="122"/>
+      <c r="B71" s="46"/>
+      <c r="C71" s="47"/>
+      <c r="D71" s="48"/>
+      <c r="E71" s="48"/>
+      <c r="F71" s="48"/>
+      <c r="G71" s="49"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A72" s="115" t="s">
+      <c r="A72" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="B72" s="116"/>
-      <c r="C72" s="116"/>
-      <c r="D72" s="116"/>
-      <c r="E72" s="116"/>
-      <c r="F72" s="116"/>
-      <c r="G72" s="117"/>
+      <c r="B72" s="43"/>
+      <c r="C72" s="43"/>
+      <c r="D72" s="43"/>
+      <c r="E72" s="43"/>
+      <c r="F72" s="43"/>
+      <c r="G72" s="44"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A73" s="105" t="s">
+      <c r="A73" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B73" s="106"/>
+      <c r="B73" s="32"/>
       <c r="C73" s="28"/>
-      <c r="D73" s="107" t="s">
+      <c r="D73" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="E73" s="107"/>
-      <c r="F73" s="111"/>
-      <c r="G73" s="112"/>
+      <c r="E73" s="33"/>
+      <c r="F73" s="37"/>
+      <c r="G73" s="38"/>
     </row>
     <row r="74" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="108" t="s">
+      <c r="A74" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B74" s="109"/>
+      <c r="B74" s="35"/>
       <c r="C74" s="29"/>
-      <c r="D74" s="110" t="s">
+      <c r="D74" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="E74" s="110"/>
-      <c r="F74" s="113"/>
-      <c r="G74" s="114"/>
+      <c r="E74" s="36"/>
+      <c r="F74" s="39"/>
+      <c r="G74" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="120">
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="D73:E73"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="F73:G73"/>
-    <mergeCell ref="F74:G74"/>
-    <mergeCell ref="D55:D57"/>
-    <mergeCell ref="E55:E57"/>
-    <mergeCell ref="D58:D60"/>
-    <mergeCell ref="E58:E60"/>
-    <mergeCell ref="A72:G72"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="C71:G71"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="C69:G69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="C70:G70"/>
-    <mergeCell ref="G65:G67"/>
-    <mergeCell ref="A65:A67"/>
-    <mergeCell ref="B65:B67"/>
-    <mergeCell ref="G58:G60"/>
-    <mergeCell ref="B61:B64"/>
-    <mergeCell ref="G61:G64"/>
+    <mergeCell ref="A9:A50"/>
+    <mergeCell ref="B9:B17"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="B18:B25"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="F18:F21"/>
+    <mergeCell ref="F9:F11"/>
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="G12:G14"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="F30:F33"/>
+    <mergeCell ref="G30:G33"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="F26:F29"/>
+    <mergeCell ref="G26:G29"/>
+    <mergeCell ref="G18:G21"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="F22:F25"/>
+    <mergeCell ref="G22:G25"/>
+    <mergeCell ref="D22:D25"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="C38:C41"/>
+    <mergeCell ref="F38:F41"/>
+    <mergeCell ref="G38:G41"/>
+    <mergeCell ref="D38:D41"/>
+    <mergeCell ref="E38:E41"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="F34:F37"/>
+    <mergeCell ref="G34:G37"/>
+    <mergeCell ref="E22:E25"/>
+    <mergeCell ref="D26:D29"/>
+    <mergeCell ref="E26:E29"/>
+    <mergeCell ref="D30:D33"/>
+    <mergeCell ref="E30:E33"/>
+    <mergeCell ref="D34:D37"/>
+    <mergeCell ref="E34:E37"/>
+    <mergeCell ref="G45:G47"/>
+    <mergeCell ref="C48:C50"/>
+    <mergeCell ref="F48:F50"/>
+    <mergeCell ref="G48:G50"/>
+    <mergeCell ref="B42:B50"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="F42:F44"/>
+    <mergeCell ref="G42:G44"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="F45:F47"/>
+    <mergeCell ref="D42:D44"/>
+    <mergeCell ref="E42:E44"/>
+    <mergeCell ref="D45:D47"/>
+    <mergeCell ref="E45:E47"/>
+    <mergeCell ref="D48:D50"/>
+    <mergeCell ref="E48:E50"/>
+    <mergeCell ref="G51:G54"/>
+    <mergeCell ref="B55:B60"/>
+    <mergeCell ref="C55:C57"/>
+    <mergeCell ref="F55:F57"/>
+    <mergeCell ref="G55:G57"/>
+    <mergeCell ref="C58:C60"/>
+    <mergeCell ref="A51:A64"/>
+    <mergeCell ref="B51:B54"/>
+    <mergeCell ref="C51:C54"/>
+    <mergeCell ref="F51:F54"/>
+    <mergeCell ref="F58:F60"/>
+    <mergeCell ref="D51:D54"/>
+    <mergeCell ref="E51:E54"/>
     <mergeCell ref="C2:F2"/>
     <mergeCell ref="D15:D17"/>
     <mergeCell ref="E15:E17"/>
@@ -2877,79 +3074,29 @@
     <mergeCell ref="F15:F17"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="F7:G7"/>
-    <mergeCell ref="G51:G54"/>
-    <mergeCell ref="B55:B60"/>
-    <mergeCell ref="C55:C57"/>
-    <mergeCell ref="F55:F57"/>
-    <mergeCell ref="G55:G57"/>
-    <mergeCell ref="C58:C60"/>
-    <mergeCell ref="A51:A64"/>
-    <mergeCell ref="B51:B54"/>
-    <mergeCell ref="C51:C54"/>
-    <mergeCell ref="F51:F54"/>
-    <mergeCell ref="F58:F60"/>
-    <mergeCell ref="D51:D54"/>
-    <mergeCell ref="E51:E54"/>
-    <mergeCell ref="G45:G47"/>
-    <mergeCell ref="C48:C50"/>
-    <mergeCell ref="F48:F50"/>
-    <mergeCell ref="G48:G50"/>
-    <mergeCell ref="B42:B50"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="F42:F44"/>
-    <mergeCell ref="G42:G44"/>
-    <mergeCell ref="C45:C47"/>
-    <mergeCell ref="F45:F47"/>
-    <mergeCell ref="D42:D44"/>
-    <mergeCell ref="E42:E44"/>
-    <mergeCell ref="D45:D47"/>
-    <mergeCell ref="E45:E47"/>
-    <mergeCell ref="D48:D50"/>
-    <mergeCell ref="E48:E50"/>
-    <mergeCell ref="F22:F25"/>
-    <mergeCell ref="G22:G25"/>
-    <mergeCell ref="D22:D25"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="C38:C41"/>
-    <mergeCell ref="F38:F41"/>
-    <mergeCell ref="G38:G41"/>
-    <mergeCell ref="D38:D41"/>
-    <mergeCell ref="E38:E41"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="F34:F37"/>
-    <mergeCell ref="G34:G37"/>
-    <mergeCell ref="E22:E25"/>
-    <mergeCell ref="D26:D29"/>
-    <mergeCell ref="E26:E29"/>
-    <mergeCell ref="D30:D33"/>
-    <mergeCell ref="E30:E33"/>
-    <mergeCell ref="D34:D37"/>
-    <mergeCell ref="E34:E37"/>
-    <mergeCell ref="A9:A50"/>
-    <mergeCell ref="B9:B17"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="G15:G17"/>
-    <mergeCell ref="B18:B25"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="F18:F21"/>
-    <mergeCell ref="F9:F11"/>
-    <mergeCell ref="G9:G11"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="F12:F14"/>
-    <mergeCell ref="G12:G14"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="F30:F33"/>
-    <mergeCell ref="G30:G33"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="F26:F29"/>
-    <mergeCell ref="G26:G29"/>
-    <mergeCell ref="G18:G21"/>
-    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="D73:E73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="F73:G73"/>
+    <mergeCell ref="F74:G74"/>
+    <mergeCell ref="D55:D57"/>
+    <mergeCell ref="E55:E57"/>
+    <mergeCell ref="D58:D60"/>
+    <mergeCell ref="E58:E60"/>
+    <mergeCell ref="A72:G72"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="G65:G67"/>
+    <mergeCell ref="A65:A67"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="G58:G60"/>
+    <mergeCell ref="B61:B64"/>
+    <mergeCell ref="G61:G64"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3031,6 +3178,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DAFEF6EC0A8CF045B465905BC1BFEE78" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4463bcd27b22be3734d92135f9648bf6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4aeb20c0e3442673af7ee10786458764">
     <xsd:element name="properties">
@@ -3079,15 +3235,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{786271B0-769C-40AB-90D8-5921F1959857}">
   <ds:schemaRefs>
@@ -3103,6 +3250,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3B648F4-E72A-4E3D-8CAA-F11D5EF0F58F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D5E645F-9992-4EBD-9402-1E3B817C1828}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3115,12 +3270,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3B648F4-E72A-4E3D-8CAA-F11D5EF0F58F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/CR/CR/HNVN-HR-FM Project Performance CheckPoint Form_mantran.xlsx
+++ b/CR/CR/HNVN-HR-FM Project Performance CheckPoint Form_mantran.xlsx
@@ -393,35 +393,11 @@
 - When tickets were trigged to live, it seem well.</t>
   </si>
   <si>
-    <t xml:space="preserve"> - I'm willing to get any ticket and try to finish asap.
-- I think I approaching a ticket quickly. For example: 50422</t>
-  </si>
-  <si>
-    <t>- I'm a new commer in project, so if I have issue, I must discuss with managers.
-- I can make decision for myself. For example: 52755, when I produce the tool scroller module, I'm so confuse with the old script, so I decise apply a new script.</t>
-  </si>
-  <si>
-    <t>- Sometime I have a ticket had problem which is affect the whole site, I fixed it and discuss with the one made the same ticket before change code. For example: 50457, 50461, 50422, when i produce i see a little bug in script.
-- When I help someone, I try to explain that problem so clear and does make that one misunderstand.</t>
-  </si>
-  <si>
     <t>- Reading and writing skill are enough to producing all ticket.
 - My weakness is speaking and listening skill, in my project does not use it.</t>
   </si>
   <si>
-    <t>- I think my planning on each ticket is appropriate for new commer. For example: 50457 estimate 1 day, 51755 estimate for Latest gallery 1.5days</t>
-  </si>
-  <si>
-    <t>- As self-planning, sometime I finished it before, sometime after, but I think it normally. Plan is a plan, when we produces is difference.</t>
-  </si>
-  <si>
-    <t>- Several ticket does completed correctly estimate time, but it still in time allow. For example: 50149</t>
-  </si>
-  <si>
     <t>- I finished my ticket follow request of that ticket, if QA add new request, I try to explain it not in my ticket request, then if QA does not allow, I call manager to explain it. And if my duty do it, I'm willing do it.</t>
-  </si>
-  <si>
-    <t>- At present, my job skill and knowledge are enough to producing ticket which I was done, but I need to improve knowledge about Magnus, html5 and css3</t>
   </si>
   <si>
     <t>- When I produced ticket on site A, influence to crosssite , and another man have the same one, I usually discuss with one to complete these file in crosssite. For example: 50149, we discuss about code in xs_uk_markup_promo_player_v3.tmpl</t>
@@ -432,10 +408,6 @@
   </si>
   <si>
     <t>- Everytime, I try to improve my skill and do my best. For example: work hard, play hard, do homework.</t>
-  </si>
-  <si>
-    <t>- I'm new commer, so this point isn't used for another person.
-- But I apply to myself. For example: if I have 2 ticket at the moment, I'll do harder ticket at morning and easer ticket at afternoon</t>
   </si>
   <si>
     <t>- Volunteer clear cache at night.
@@ -443,11 +415,39 @@
 - Attend PingPong championship 2011.</t>
   </si>
   <si>
+    <t>- When I get a ticket, I'll discuss with CMO about that ticket, and usually my thinking had approved. For example: in 51755, tool scroller will have 5 file and estimate time is 1,5 days or promo player does not need to use any new file, it just reuse and modify all exist file.</t>
+  </si>
+  <si>
+    <t>- I can make decision for myself. For example: 52755, when I produce the tool scroller module, I'm so confuse with the old script, so I decise apply a new script. It work very well.</t>
+  </si>
+  <si>
+    <t>- At present, my job skill and knowledge are enough to producing ticket which I was done, but I will improve knowledge about Magnus, html5 and css3</t>
+  </si>
+  <si>
+    <t>- Several ticket does not completed correctly estimate time, but it still in time allow. For example: 50149 create promo player for BEX, I estimated it in 2 days, and I completed it in 3 days, but It still trigged in that week.</t>
+  </si>
+  <si>
     <t>- I have weekly report to direct manager, and I think it in a clear.
-- Use email or chat discuss about ticket I do. And everyone understand what's I mean.</t>
-  </si>
-  <si>
-    <t>- When I get a ticket, I'll discuss with CMO about that ticket, and usually my thinking had approved. For example: 51755, tool scroller or promo player.</t>
+- Use email or chat discuss about ticket I do. And everyone understand what I mean.</t>
+  </si>
+  <si>
+    <t>- Sometime I have a ticket had problem which is affect the whole site, I fixed it and discuss with the one made the same ticket before change code. For example: 50457, 50461, 50422, when i produce i see a little bug in script.
+- When I help someone, I try to explain that problem so clear and does not make that one misunderstand.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- As self-planning, almost ticket I completed at estimate time. But sometime I miss. For example: 50149 late 1 day, 51755 create Latest Article early 0.5 day. </t>
+  </si>
+  <si>
+    <t>- I think my planning on each ticket is appropriate for new commer. For example: 50457 estimate 1 day, 51755 estimate for Latest gallery 1.5days. And I completed all on estimate time.
+- Planning about hard level of ticket, harder ticket will work at morning and easier ticket work at afternoon.</t>
+  </si>
+  <si>
+    <t>- I'm new commer, so this point isn't used for another person.
+- But I apply to myself. For example: if I have 2 ticket at the moment, I'll do harder ticket at morning and easier ticket at afternoon</t>
+  </si>
+  <si>
+    <t>- I'm willing to get any ticket and try to finish asap.
+- I think I approaching a ticket quickly. For example: 50422, to create EPIC landing page. It the first time I worked on tmpl file and magnus, after I were trained, I finished it at timeline follow teamlead request.</t>
   </si>
 </sst>
 </file>
@@ -1235,6 +1235,194 @@
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="7" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="9" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="8" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="11" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="10" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="12" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="9" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1265,9 +1453,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1340,10 +1525,6 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="9" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -1351,309 +1532,128 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="12" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="5" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="5" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="8" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="11" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="10" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="7" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="9" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="7" borderId="22" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="13" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="7" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="22" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="7" borderId="22" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="22" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="7" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="8" borderId="13" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="13" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="8" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="8" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="22" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="22" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="9" borderId="13" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="13" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="9" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="9" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="10" borderId="13" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="13" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="10" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="10" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="12" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="13" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="12" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="13" borderId="22" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="13" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="22" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="13" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="22" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="6" borderId="9" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="9" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="6" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="6" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="12" borderId="13" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="11" borderId="13" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="11" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="11" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="5" borderId="22" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="5" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="5" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="7" borderId="13" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="7" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="7" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2082,8 +2082,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12:F14"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E58" sqref="E58:E60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2099,12 +2099,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="69" t="s">
+      <c r="C2" s="77" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
       <c r="G2" s="11"/>
     </row>
     <row r="3" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2114,10 +2114,10 @@
       <c r="C3" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="D3" s="72" t="s">
+      <c r="D3" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="72"/>
+      <c r="E3" s="78"/>
       <c r="F3" s="16" t="s">
         <v>64</v>
       </c>
@@ -2129,10 +2129,10 @@
       <c r="C4" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="D4" s="72" t="s">
+      <c r="D4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="72"/>
+      <c r="E4" s="78"/>
       <c r="F4" s="16"/>
     </row>
     <row r="5" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2143,10 +2143,10 @@
       <c r="C5" s="30">
         <v>40610</v>
       </c>
-      <c r="D5" s="72" t="s">
+      <c r="D5" s="78" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="72"/>
+      <c r="E5" s="78"/>
       <c r="F5" s="16" t="s">
         <v>50</v>
       </c>
@@ -2160,21 +2160,21 @@
         <f>IF(E68&lt;1.6,"UNACCEPTABLE",IF(E68&lt;2,"NEED IMPROVEMENT",IF(E68&lt;2.5,"MEET EXPECTATION",IF(E68&lt;2.8,"EXCEED EXPECTATION","OUTSTANDING"))))</f>
         <v>MEET EXPECTATION</v>
       </c>
-      <c r="D6" s="72" t="s">
+      <c r="D6" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="72"/>
+      <c r="E6" s="78"/>
       <c r="F6" s="16"/>
     </row>
     <row r="7" spans="1:7" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="83"/>
-      <c r="C7" s="83"/>
-      <c r="D7" s="83"/>
-      <c r="E7" s="83"/>
-      <c r="F7" s="84" t="s">
+      <c r="B7" s="87"/>
+      <c r="C7" s="87"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="88" t="s">
         <v>43</v>
       </c>
-      <c r="G7" s="85"/>
+      <c r="G7" s="89"/>
     </row>
     <row r="8" spans="1:7" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="17" t="s">
@@ -2197,707 +2197,707 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="113" t="s">
+      <c r="A9" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="115" t="s">
+      <c r="B9" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="117" t="s">
+      <c r="C9" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="D9" s="77">
+      <c r="D9" s="40">
         <v>2</v>
       </c>
-      <c r="E9" s="77">
+      <c r="E9" s="40">
         <v>2</v>
       </c>
-      <c r="F9" s="155" t="s">
+      <c r="F9" s="126" t="s">
+        <v>73</v>
+      </c>
+      <c r="G9" s="36"/>
+    </row>
+    <row r="10" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="32"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="127"/>
+      <c r="G10" s="36"/>
+    </row>
+    <row r="11" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="32"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="128"/>
+      <c r="G11" s="36"/>
+    </row>
+    <row r="12" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="32"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="40">
+        <v>2</v>
+      </c>
+      <c r="E12" s="41">
+        <v>2</v>
+      </c>
+      <c r="F12" s="129" t="s">
+        <v>77</v>
+      </c>
+      <c r="G12" s="36"/>
+    </row>
+    <row r="13" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="32"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="130"/>
+      <c r="G13" s="36"/>
+    </row>
+    <row r="14" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="32"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="130"/>
+      <c r="G14" s="36"/>
+    </row>
+    <row r="15" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="32"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="41">
+        <v>2</v>
+      </c>
+      <c r="E15" s="41">
+        <v>2</v>
+      </c>
+      <c r="F15" s="131" t="s">
+        <v>78</v>
+      </c>
+      <c r="G15" s="36"/>
+    </row>
+    <row r="16" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="32"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="132"/>
+      <c r="G16" s="36"/>
+    </row>
+    <row r="17" spans="1:7" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="32"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="132"/>
+      <c r="G17" s="36"/>
+    </row>
+    <row r="18" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="32"/>
+      <c r="B18" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="49">
+        <v>3</v>
+      </c>
+      <c r="E18" s="49">
+        <v>2</v>
+      </c>
+      <c r="F18" s="133" t="s">
+        <v>80</v>
+      </c>
+      <c r="G18" s="48"/>
+    </row>
+    <row r="19" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="32"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="134"/>
+      <c r="G19" s="48"/>
+    </row>
+    <row r="20" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="32"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="134"/>
+      <c r="G20" s="48"/>
+    </row>
+    <row r="21" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="32"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="135"/>
+      <c r="G21" s="48"/>
+    </row>
+    <row r="22" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="32"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" s="49">
+        <v>2</v>
+      </c>
+      <c r="E22" s="49">
+        <v>2</v>
+      </c>
+      <c r="F22" s="133" t="s">
+        <v>79</v>
+      </c>
+      <c r="G22" s="48"/>
+    </row>
+    <row r="23" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="32"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="134"/>
+      <c r="G23" s="48"/>
+    </row>
+    <row r="24" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="32"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="134"/>
+      <c r="G24" s="48"/>
+    </row>
+    <row r="25" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="32"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="135"/>
+      <c r="G25" s="48"/>
+    </row>
+    <row r="26" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="32"/>
+      <c r="B26" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" s="57">
+        <v>3</v>
+      </c>
+      <c r="E26" s="57">
+        <v>2</v>
+      </c>
+      <c r="F26" s="136" t="s">
         <v>82</v>
       </c>
-      <c r="G9" s="118"/>
-    </row>
-    <row r="10" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="114"/>
-      <c r="B10" s="116"/>
-      <c r="C10" s="117"/>
-      <c r="D10" s="77"/>
-      <c r="E10" s="77"/>
-      <c r="F10" s="156"/>
-      <c r="G10" s="118"/>
-    </row>
-    <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="114"/>
-      <c r="B11" s="116"/>
-      <c r="C11" s="117"/>
-      <c r="D11" s="77"/>
-      <c r="E11" s="77"/>
-      <c r="F11" s="157"/>
-      <c r="G11" s="118"/>
-    </row>
-    <row r="12" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="114"/>
-      <c r="B12" s="116"/>
-      <c r="C12" s="82" t="s">
-        <v>53</v>
-      </c>
-      <c r="D12" s="77">
+      <c r="G26" s="47"/>
+    </row>
+    <row r="27" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="32"/>
+      <c r="B27" s="45"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="57"/>
+      <c r="E27" s="57"/>
+      <c r="F27" s="137"/>
+      <c r="G27" s="47"/>
+    </row>
+    <row r="28" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="32"/>
+      <c r="B28" s="45"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="57"/>
+      <c r="E28" s="57"/>
+      <c r="F28" s="137"/>
+      <c r="G28" s="47"/>
+    </row>
+    <row r="29" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="32"/>
+      <c r="B29" s="45"/>
+      <c r="C29" s="46"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="57"/>
+      <c r="F29" s="137"/>
+      <c r="G29" s="47"/>
+    </row>
+    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="32"/>
+      <c r="B30" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" s="58">
+        <v>3</v>
+      </c>
+      <c r="E30" s="58">
         <v>2</v>
       </c>
-      <c r="E12" s="70">
+      <c r="F30" s="138" t="s">
+        <v>74</v>
+      </c>
+      <c r="G30" s="44"/>
+    </row>
+    <row r="31" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="32"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="43"/>
+      <c r="D31" s="58"/>
+      <c r="E31" s="58"/>
+      <c r="F31" s="139"/>
+      <c r="G31" s="44"/>
+    </row>
+    <row r="32" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="32"/>
+      <c r="B32" s="42"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="58"/>
+      <c r="E32" s="58"/>
+      <c r="F32" s="139"/>
+      <c r="G32" s="44"/>
+    </row>
+    <row r="33" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="32"/>
+      <c r="B33" s="42"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="58"/>
+      <c r="E33" s="58"/>
+      <c r="F33" s="140"/>
+      <c r="G33" s="44"/>
+    </row>
+    <row r="34" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="32"/>
+      <c r="B34" s="54" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="D34" s="59">
         <v>2</v>
       </c>
-      <c r="F12" s="126" t="s">
+      <c r="E34" s="59">
+        <v>2</v>
+      </c>
+      <c r="F34" s="141" t="s">
+        <v>68</v>
+      </c>
+      <c r="G34" s="56"/>
+    </row>
+    <row r="35" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="32"/>
+      <c r="B35" s="54"/>
+      <c r="C35" s="55"/>
+      <c r="D35" s="59"/>
+      <c r="E35" s="59"/>
+      <c r="F35" s="142"/>
+      <c r="G35" s="56"/>
+    </row>
+    <row r="36" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="32"/>
+      <c r="B36" s="54"/>
+      <c r="C36" s="55"/>
+      <c r="D36" s="59"/>
+      <c r="E36" s="59"/>
+      <c r="F36" s="142"/>
+      <c r="G36" s="56"/>
+    </row>
+    <row r="37" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="32"/>
+      <c r="B37" s="54"/>
+      <c r="C37" s="55"/>
+      <c r="D37" s="59"/>
+      <c r="E37" s="59"/>
+      <c r="F37" s="143"/>
+      <c r="G37" s="56"/>
+    </row>
+    <row r="38" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="32"/>
+      <c r="B38" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="C38" s="51" t="s">
+        <v>56</v>
+      </c>
+      <c r="D38" s="53">
+        <v>2</v>
+      </c>
+      <c r="E38" s="53">
+        <v>2</v>
+      </c>
+      <c r="F38" s="144" t="s">
+        <v>69</v>
+      </c>
+      <c r="G38" s="52"/>
+    </row>
+    <row r="39" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="32"/>
+      <c r="B39" s="50"/>
+      <c r="C39" s="51"/>
+      <c r="D39" s="53"/>
+      <c r="E39" s="53"/>
+      <c r="F39" s="145"/>
+      <c r="G39" s="52"/>
+    </row>
+    <row r="40" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="32"/>
+      <c r="B40" s="50"/>
+      <c r="C40" s="51"/>
+      <c r="D40" s="53"/>
+      <c r="E40" s="53"/>
+      <c r="F40" s="145"/>
+      <c r="G40" s="52"/>
+    </row>
+    <row r="41" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="32"/>
+      <c r="B41" s="50"/>
+      <c r="C41" s="51"/>
+      <c r="D41" s="53"/>
+      <c r="E41" s="53"/>
+      <c r="F41" s="146"/>
+      <c r="G41" s="52"/>
+    </row>
+    <row r="42" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="32"/>
+      <c r="B42" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="C42" s="61" t="s">
+        <v>58</v>
+      </c>
+      <c r="D42" s="66">
+        <v>3</v>
+      </c>
+      <c r="E42" s="66">
+        <v>2</v>
+      </c>
+      <c r="F42" s="147" t="s">
+        <v>70</v>
+      </c>
+      <c r="G42" s="60"/>
+    </row>
+    <row r="43" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="32"/>
+      <c r="B43" s="64"/>
+      <c r="C43" s="61"/>
+      <c r="D43" s="66"/>
+      <c r="E43" s="66"/>
+      <c r="F43" s="148"/>
+      <c r="G43" s="60"/>
+    </row>
+    <row r="44" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="32"/>
+      <c r="B44" s="64"/>
+      <c r="C44" s="61"/>
+      <c r="D44" s="66"/>
+      <c r="E44" s="66"/>
+      <c r="F44" s="148"/>
+      <c r="G44" s="60"/>
+    </row>
+    <row r="45" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="32"/>
+      <c r="B45" s="64"/>
+      <c r="C45" s="61" t="s">
+        <v>59</v>
+      </c>
+      <c r="D45" s="66">
+        <v>2</v>
+      </c>
+      <c r="E45" s="66">
+        <v>2</v>
+      </c>
+      <c r="F45" s="147" t="s">
         <v>81</v>
       </c>
-      <c r="G12" s="118"/>
-    </row>
-    <row r="13" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="114"/>
-      <c r="B13" s="116"/>
-      <c r="C13" s="82"/>
-      <c r="D13" s="77"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="127"/>
-      <c r="G13" s="118"/>
-    </row>
-    <row r="14" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="114"/>
-      <c r="B14" s="116"/>
-      <c r="C14" s="82"/>
-      <c r="D14" s="77"/>
-      <c r="E14" s="70"/>
-      <c r="F14" s="127"/>
-      <c r="G14" s="118"/>
-    </row>
-    <row r="15" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="114"/>
-      <c r="B15" s="116"/>
-      <c r="C15" s="82" t="s">
-        <v>51</v>
-      </c>
-      <c r="D15" s="70">
+      <c r="G45" s="60"/>
+    </row>
+    <row r="46" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="32"/>
+      <c r="B46" s="64"/>
+      <c r="C46" s="61"/>
+      <c r="D46" s="66"/>
+      <c r="E46" s="66"/>
+      <c r="F46" s="148"/>
+      <c r="G46" s="60"/>
+    </row>
+    <row r="47" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="32"/>
+      <c r="B47" s="64"/>
+      <c r="C47" s="61"/>
+      <c r="D47" s="66"/>
+      <c r="E47" s="66"/>
+      <c r="F47" s="148"/>
+      <c r="G47" s="60"/>
+    </row>
+    <row r="48" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="32"/>
+      <c r="B48" s="64"/>
+      <c r="C48" s="61" t="s">
+        <v>60</v>
+      </c>
+      <c r="D48" s="66">
         <v>2</v>
       </c>
-      <c r="E15" s="70">
+      <c r="E48" s="66">
         <v>2</v>
       </c>
-      <c r="F15" s="128" t="s">
-        <v>69</v>
-      </c>
-      <c r="G15" s="118"/>
-    </row>
-    <row r="16" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="114"/>
-      <c r="B16" s="116"/>
-      <c r="C16" s="82"/>
-      <c r="D16" s="70"/>
-      <c r="E16" s="70"/>
-      <c r="F16" s="129"/>
-      <c r="G16" s="118"/>
-    </row>
-    <row r="17" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="114"/>
-      <c r="B17" s="116"/>
-      <c r="C17" s="82"/>
-      <c r="D17" s="70"/>
-      <c r="E17" s="70"/>
-      <c r="F17" s="129"/>
-      <c r="G17" s="118"/>
-    </row>
-    <row r="18" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="114"/>
-      <c r="B18" s="119" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="120" t="s">
-        <v>54</v>
-      </c>
-      <c r="D18" s="71">
+      <c r="F48" s="147" t="s">
+        <v>71</v>
+      </c>
+      <c r="G48" s="60"/>
+    </row>
+    <row r="49" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="32"/>
+      <c r="B49" s="64"/>
+      <c r="C49" s="61"/>
+      <c r="D49" s="66"/>
+      <c r="E49" s="66"/>
+      <c r="F49" s="148"/>
+      <c r="G49" s="60"/>
+    </row>
+    <row r="50" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="32"/>
+      <c r="B50" s="65"/>
+      <c r="C50" s="62"/>
+      <c r="D50" s="67"/>
+      <c r="E50" s="67"/>
+      <c r="F50" s="149"/>
+      <c r="G50" s="63"/>
+    </row>
+    <row r="51" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="72" t="s">
+        <v>31</v>
+      </c>
+      <c r="B51" s="74" t="s">
+        <v>2</v>
+      </c>
+      <c r="C51" s="75" t="s">
+        <v>42</v>
+      </c>
+      <c r="D51" s="76">
         <v>3</v>
       </c>
-      <c r="E18" s="71">
+      <c r="E51" s="76">
         <v>2</v>
       </c>
-      <c r="F18" s="130" t="s">
-        <v>71</v>
-      </c>
-      <c r="G18" s="103"/>
-    </row>
-    <row r="19" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="114"/>
-      <c r="B19" s="119"/>
-      <c r="C19" s="120"/>
-      <c r="D19" s="71"/>
-      <c r="E19" s="71"/>
-      <c r="F19" s="131"/>
-      <c r="G19" s="103"/>
-    </row>
-    <row r="20" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="114"/>
-      <c r="B20" s="119"/>
-      <c r="C20" s="120"/>
-      <c r="D20" s="71"/>
-      <c r="E20" s="71"/>
-      <c r="F20" s="131"/>
-      <c r="G20" s="103"/>
-    </row>
-    <row r="21" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="114"/>
-      <c r="B21" s="119"/>
-      <c r="C21" s="120"/>
-      <c r="D21" s="71"/>
-      <c r="E21" s="71"/>
-      <c r="F21" s="132"/>
-      <c r="G21" s="103"/>
-    </row>
-    <row r="22" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="114"/>
-      <c r="B22" s="119"/>
-      <c r="C22" s="120" t="s">
-        <v>55</v>
-      </c>
-      <c r="D22" s="71">
+      <c r="F51" s="150" t="s">
+        <v>75</v>
+      </c>
+      <c r="G51" s="68"/>
+    </row>
+    <row r="52" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="73"/>
+      <c r="B52" s="74"/>
+      <c r="C52" s="75"/>
+      <c r="D52" s="76"/>
+      <c r="E52" s="76"/>
+      <c r="F52" s="151"/>
+      <c r="G52" s="68"/>
+    </row>
+    <row r="53" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="73"/>
+      <c r="B53" s="74"/>
+      <c r="C53" s="75"/>
+      <c r="D53" s="76"/>
+      <c r="E53" s="76"/>
+      <c r="F53" s="151"/>
+      <c r="G53" s="68"/>
+    </row>
+    <row r="54" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="73"/>
+      <c r="B54" s="74"/>
+      <c r="C54" s="75"/>
+      <c r="D54" s="76"/>
+      <c r="E54" s="76"/>
+      <c r="F54" s="152"/>
+      <c r="G54" s="68"/>
+    </row>
+    <row r="55" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="73"/>
+      <c r="B55" s="69" t="s">
+        <v>7</v>
+      </c>
+      <c r="C55" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="D55" s="58">
         <v>2</v>
       </c>
-      <c r="E22" s="71">
+      <c r="E55" s="58">
         <v>2</v>
       </c>
-      <c r="F22" s="130" t="s">
+      <c r="F55" s="138" t="s">
+        <v>76</v>
+      </c>
+      <c r="G55" s="71"/>
+    </row>
+    <row r="56" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="73"/>
+      <c r="B56" s="70"/>
+      <c r="C56" s="43"/>
+      <c r="D56" s="58"/>
+      <c r="E56" s="58"/>
+      <c r="F56" s="139"/>
+      <c r="G56" s="71"/>
+    </row>
+    <row r="57" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="73"/>
+      <c r="B57" s="70"/>
+      <c r="C57" s="43"/>
+      <c r="D57" s="58"/>
+      <c r="E57" s="58"/>
+      <c r="F57" s="140"/>
+      <c r="G57" s="71"/>
+    </row>
+    <row r="58" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="73"/>
+      <c r="B58" s="70"/>
+      <c r="C58" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="D58" s="58">
+        <v>2</v>
+      </c>
+      <c r="E58" s="58">
+        <v>2</v>
+      </c>
+      <c r="F58" s="138" t="s">
         <v>72</v>
       </c>
-      <c r="G22" s="103"/>
-    </row>
-    <row r="23" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="114"/>
-      <c r="B23" s="119"/>
-      <c r="C23" s="120"/>
-      <c r="D23" s="71"/>
-      <c r="E23" s="71"/>
-      <c r="F23" s="131"/>
-      <c r="G23" s="103"/>
-    </row>
-    <row r="24" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="114"/>
-      <c r="B24" s="119"/>
-      <c r="C24" s="120"/>
-      <c r="D24" s="71"/>
-      <c r="E24" s="71"/>
-      <c r="F24" s="131"/>
-      <c r="G24" s="103"/>
-    </row>
-    <row r="25" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="114"/>
-      <c r="B25" s="119"/>
-      <c r="C25" s="120"/>
-      <c r="D25" s="71"/>
-      <c r="E25" s="71"/>
-      <c r="F25" s="132"/>
-      <c r="G25" s="103"/>
-    </row>
-    <row r="26" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="114"/>
-      <c r="B26" s="123" t="s">
-        <v>4</v>
-      </c>
-      <c r="C26" s="124" t="s">
-        <v>3</v>
-      </c>
-      <c r="D26" s="111">
-        <v>3</v>
-      </c>
-      <c r="E26" s="111">
+      <c r="G58" s="71"/>
+    </row>
+    <row r="59" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="73"/>
+      <c r="B59" s="70"/>
+      <c r="C59" s="43"/>
+      <c r="D59" s="58"/>
+      <c r="E59" s="58"/>
+      <c r="F59" s="139"/>
+      <c r="G59" s="71"/>
+    </row>
+    <row r="60" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="73"/>
+      <c r="B60" s="70"/>
+      <c r="C60" s="43"/>
+      <c r="D60" s="58"/>
+      <c r="E60" s="58"/>
+      <c r="F60" s="140"/>
+      <c r="G60" s="71"/>
+    </row>
+    <row r="61" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="73"/>
+      <c r="B61" s="124" t="s">
+        <v>5</v>
+      </c>
+      <c r="C61" s="85" t="s">
+        <v>61</v>
+      </c>
+      <c r="D61" s="86">
         <v>2</v>
       </c>
-      <c r="F26" s="133" t="s">
+      <c r="E61" s="86">
+        <v>2</v>
+      </c>
+      <c r="F61" s="153" t="s">
+        <v>66</v>
+      </c>
+      <c r="G61" s="125"/>
+    </row>
+    <row r="62" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="73"/>
+      <c r="B62" s="124"/>
+      <c r="C62" s="85"/>
+      <c r="D62" s="86"/>
+      <c r="E62" s="86"/>
+      <c r="F62" s="154"/>
+      <c r="G62" s="125"/>
+    </row>
+    <row r="63" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="73"/>
+      <c r="B63" s="124"/>
+      <c r="C63" s="85"/>
+      <c r="D63" s="86"/>
+      <c r="E63" s="86"/>
+      <c r="F63" s="154"/>
+      <c r="G63" s="125"/>
+    </row>
+    <row r="64" spans="1:7" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="73"/>
+      <c r="B64" s="124"/>
+      <c r="C64" s="85"/>
+      <c r="D64" s="86"/>
+      <c r="E64" s="86"/>
+      <c r="F64" s="154"/>
+      <c r="G64" s="125"/>
+    </row>
+    <row r="65" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="120" t="s">
+        <v>32</v>
+      </c>
+      <c r="B65" s="122" t="s">
+        <v>33</v>
+      </c>
+      <c r="C65" s="83" t="s">
+        <v>34</v>
+      </c>
+      <c r="D65" s="80">
+        <v>2</v>
+      </c>
+      <c r="E65" s="80">
+        <v>2</v>
+      </c>
+      <c r="F65" s="155" t="s">
         <v>67</v>
       </c>
-      <c r="G26" s="125"/>
-    </row>
-    <row r="27" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="114"/>
-      <c r="B27" s="123"/>
-      <c r="C27" s="124"/>
-      <c r="D27" s="111"/>
-      <c r="E27" s="111"/>
-      <c r="F27" s="134"/>
-      <c r="G27" s="125"/>
-    </row>
-    <row r="28" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="114"/>
-      <c r="B28" s="123"/>
-      <c r="C28" s="124"/>
-      <c r="D28" s="111"/>
-      <c r="E28" s="111"/>
-      <c r="F28" s="134"/>
-      <c r="G28" s="125"/>
-    </row>
-    <row r="29" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="114"/>
-      <c r="B29" s="123"/>
-      <c r="C29" s="124"/>
-      <c r="D29" s="111"/>
-      <c r="E29" s="111"/>
-      <c r="F29" s="134"/>
-      <c r="G29" s="125"/>
-    </row>
-    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="114"/>
-      <c r="B30" s="121" t="s">
-        <v>26</v>
-      </c>
-      <c r="C30" s="89" t="s">
-        <v>27</v>
-      </c>
-      <c r="D30" s="41">
-        <v>3</v>
-      </c>
-      <c r="E30" s="41">
-        <v>2</v>
-      </c>
-      <c r="F30" s="135" t="s">
-        <v>68</v>
-      </c>
-      <c r="G30" s="122"/>
-    </row>
-    <row r="31" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="114"/>
-      <c r="B31" s="121"/>
-      <c r="C31" s="89"/>
-      <c r="D31" s="41"/>
-      <c r="E31" s="41"/>
-      <c r="F31" s="136"/>
-      <c r="G31" s="122"/>
-    </row>
-    <row r="32" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="114"/>
-      <c r="B32" s="121"/>
-      <c r="C32" s="89"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="41"/>
-      <c r="F32" s="136"/>
-      <c r="G32" s="122"/>
-    </row>
-    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="114"/>
-      <c r="B33" s="121"/>
-      <c r="C33" s="89"/>
-      <c r="D33" s="41"/>
-      <c r="E33" s="41"/>
-      <c r="F33" s="137"/>
-      <c r="G33" s="122"/>
-    </row>
-    <row r="34" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="114"/>
-      <c r="B34" s="108" t="s">
-        <v>28</v>
-      </c>
-      <c r="C34" s="109" t="s">
-        <v>57</v>
-      </c>
-      <c r="D34" s="112">
-        <v>2</v>
-      </c>
-      <c r="E34" s="112">
-        <v>2</v>
-      </c>
-      <c r="F34" s="138" t="s">
-        <v>74</v>
-      </c>
-      <c r="G34" s="110"/>
-    </row>
-    <row r="35" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="114"/>
-      <c r="B35" s="108"/>
-      <c r="C35" s="109"/>
-      <c r="D35" s="112"/>
-      <c r="E35" s="112"/>
-      <c r="F35" s="139"/>
-      <c r="G35" s="110"/>
-    </row>
-    <row r="36" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="114"/>
-      <c r="B36" s="108"/>
-      <c r="C36" s="109"/>
-      <c r="D36" s="112"/>
-      <c r="E36" s="112"/>
-      <c r="F36" s="139"/>
-      <c r="G36" s="110"/>
-    </row>
-    <row r="37" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="114"/>
-      <c r="B37" s="108"/>
-      <c r="C37" s="109"/>
-      <c r="D37" s="112"/>
-      <c r="E37" s="112"/>
-      <c r="F37" s="140"/>
-      <c r="G37" s="110"/>
-    </row>
-    <row r="38" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="114"/>
-      <c r="B38" s="104" t="s">
-        <v>29</v>
-      </c>
-      <c r="C38" s="105" t="s">
-        <v>56</v>
-      </c>
-      <c r="D38" s="107">
-        <v>2</v>
-      </c>
-      <c r="E38" s="107">
-        <v>2</v>
-      </c>
-      <c r="F38" s="149" t="s">
-        <v>76</v>
-      </c>
-      <c r="G38" s="106"/>
-    </row>
-    <row r="39" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="114"/>
-      <c r="B39" s="104"/>
-      <c r="C39" s="105"/>
-      <c r="D39" s="107"/>
-      <c r="E39" s="107"/>
-      <c r="F39" s="150"/>
-      <c r="G39" s="106"/>
-    </row>
-    <row r="40" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="114"/>
-      <c r="B40" s="104"/>
-      <c r="C40" s="105"/>
-      <c r="D40" s="107"/>
-      <c r="E40" s="107"/>
-      <c r="F40" s="150"/>
-      <c r="G40" s="106"/>
-    </row>
-    <row r="41" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="114"/>
-      <c r="B41" s="104"/>
-      <c r="C41" s="105"/>
-      <c r="D41" s="107"/>
-      <c r="E41" s="107"/>
-      <c r="F41" s="151"/>
-      <c r="G41" s="106"/>
-    </row>
-    <row r="42" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="114"/>
-      <c r="B42" s="99" t="s">
-        <v>30</v>
-      </c>
-      <c r="C42" s="96" t="s">
-        <v>58</v>
-      </c>
-      <c r="D42" s="101">
-        <v>3</v>
-      </c>
-      <c r="E42" s="101">
-        <v>2</v>
-      </c>
-      <c r="F42" s="152" t="s">
-        <v>77</v>
-      </c>
-      <c r="G42" s="95"/>
-    </row>
-    <row r="43" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="114"/>
-      <c r="B43" s="99"/>
-      <c r="C43" s="96"/>
-      <c r="D43" s="101"/>
-      <c r="E43" s="101"/>
-      <c r="F43" s="153"/>
-      <c r="G43" s="95"/>
-    </row>
-    <row r="44" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="114"/>
-      <c r="B44" s="99"/>
-      <c r="C44" s="96"/>
-      <c r="D44" s="101"/>
-      <c r="E44" s="101"/>
-      <c r="F44" s="153"/>
-      <c r="G44" s="95"/>
-    </row>
-    <row r="45" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="114"/>
-      <c r="B45" s="99"/>
-      <c r="C45" s="96" t="s">
-        <v>59</v>
-      </c>
-      <c r="D45" s="101">
-        <v>2</v>
-      </c>
-      <c r="E45" s="101">
-        <v>2</v>
-      </c>
-      <c r="F45" s="152" t="s">
-        <v>79</v>
-      </c>
-      <c r="G45" s="95"/>
-    </row>
-    <row r="46" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="114"/>
-      <c r="B46" s="99"/>
-      <c r="C46" s="96"/>
-      <c r="D46" s="101"/>
-      <c r="E46" s="101"/>
-      <c r="F46" s="153"/>
-      <c r="G46" s="95"/>
-    </row>
-    <row r="47" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="114"/>
-      <c r="B47" s="99"/>
-      <c r="C47" s="96"/>
-      <c r="D47" s="101"/>
-      <c r="E47" s="101"/>
-      <c r="F47" s="153"/>
-      <c r="G47" s="95"/>
-    </row>
-    <row r="48" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="114"/>
-      <c r="B48" s="99"/>
-      <c r="C48" s="96" t="s">
-        <v>60</v>
-      </c>
-      <c r="D48" s="101">
-        <v>2</v>
-      </c>
-      <c r="E48" s="101">
-        <v>2</v>
-      </c>
-      <c r="F48" s="152" t="s">
-        <v>78</v>
-      </c>
-      <c r="G48" s="95"/>
-    </row>
-    <row r="49" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="114"/>
-      <c r="B49" s="99"/>
-      <c r="C49" s="96"/>
-      <c r="D49" s="101"/>
-      <c r="E49" s="101"/>
-      <c r="F49" s="153"/>
-      <c r="G49" s="95"/>
-    </row>
-    <row r="50" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="114"/>
-      <c r="B50" s="100"/>
-      <c r="C50" s="97"/>
-      <c r="D50" s="102"/>
-      <c r="E50" s="102"/>
-      <c r="F50" s="154"/>
-      <c r="G50" s="98"/>
-    </row>
-    <row r="51" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="90" t="s">
-        <v>31</v>
-      </c>
-      <c r="B51" s="92" t="s">
-        <v>2</v>
-      </c>
-      <c r="C51" s="93" t="s">
-        <v>42</v>
-      </c>
-      <c r="D51" s="94">
-        <v>3</v>
-      </c>
-      <c r="E51" s="94">
-        <v>2</v>
-      </c>
-      <c r="F51" s="148" t="s">
-        <v>75</v>
-      </c>
-      <c r="G51" s="86"/>
-    </row>
-    <row r="52" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="91"/>
-      <c r="B52" s="92"/>
-      <c r="C52" s="93"/>
-      <c r="D52" s="94"/>
-      <c r="E52" s="94"/>
-      <c r="F52" s="141"/>
-      <c r="G52" s="86"/>
-    </row>
-    <row r="53" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="91"/>
-      <c r="B53" s="92"/>
-      <c r="C53" s="93"/>
-      <c r="D53" s="94"/>
-      <c r="E53" s="94"/>
-      <c r="F53" s="141"/>
-      <c r="G53" s="86"/>
-    </row>
-    <row r="54" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="91"/>
-      <c r="B54" s="92"/>
-      <c r="C54" s="93"/>
-      <c r="D54" s="94"/>
-      <c r="E54" s="94"/>
-      <c r="F54" s="142"/>
-      <c r="G54" s="86"/>
-    </row>
-    <row r="55" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="91"/>
-      <c r="B55" s="87" t="s">
-        <v>7</v>
-      </c>
-      <c r="C55" s="89" t="s">
-        <v>41</v>
-      </c>
-      <c r="D55" s="41">
-        <v>2</v>
-      </c>
-      <c r="E55" s="41">
-        <v>2</v>
-      </c>
-      <c r="F55" s="135" t="s">
-        <v>73</v>
-      </c>
-      <c r="G55" s="66"/>
-    </row>
-    <row r="56" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="91"/>
-      <c r="B56" s="88"/>
-      <c r="C56" s="89"/>
-      <c r="D56" s="41"/>
-      <c r="E56" s="41"/>
-      <c r="F56" s="136"/>
-      <c r="G56" s="66"/>
-    </row>
-    <row r="57" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="91"/>
-      <c r="B57" s="88"/>
-      <c r="C57" s="89"/>
-      <c r="D57" s="41"/>
-      <c r="E57" s="41"/>
-      <c r="F57" s="137"/>
-      <c r="G57" s="66"/>
-    </row>
-    <row r="58" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="91"/>
-      <c r="B58" s="88"/>
-      <c r="C58" s="89" t="s">
-        <v>6</v>
-      </c>
-      <c r="D58" s="41">
-        <v>2</v>
-      </c>
-      <c r="E58" s="41">
-        <v>2</v>
-      </c>
-      <c r="F58" s="135" t="s">
-        <v>80</v>
-      </c>
-      <c r="G58" s="66"/>
-    </row>
-    <row r="59" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="91"/>
-      <c r="B59" s="88"/>
-      <c r="C59" s="89"/>
-      <c r="D59" s="41"/>
-      <c r="E59" s="41"/>
-      <c r="F59" s="136"/>
-      <c r="G59" s="66"/>
-    </row>
-    <row r="60" spans="1:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="91"/>
-      <c r="B60" s="88"/>
-      <c r="C60" s="89"/>
-      <c r="D60" s="41"/>
-      <c r="E60" s="41"/>
-      <c r="F60" s="137"/>
-      <c r="G60" s="66"/>
-    </row>
-    <row r="61" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="91"/>
-      <c r="B61" s="67" t="s">
-        <v>5</v>
-      </c>
-      <c r="C61" s="80" t="s">
-        <v>61</v>
-      </c>
-      <c r="D61" s="81">
-        <v>2</v>
-      </c>
-      <c r="E61" s="81">
-        <v>2</v>
-      </c>
-      <c r="F61" s="143" t="s">
-        <v>66</v>
-      </c>
-      <c r="G61" s="68"/>
-    </row>
-    <row r="62" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="91"/>
-      <c r="B62" s="67"/>
-      <c r="C62" s="80"/>
-      <c r="D62" s="81"/>
-      <c r="E62" s="81"/>
-      <c r="F62" s="144"/>
-      <c r="G62" s="68"/>
-    </row>
-    <row r="63" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="91"/>
-      <c r="B63" s="67"/>
-      <c r="C63" s="80"/>
-      <c r="D63" s="81"/>
-      <c r="E63" s="81"/>
-      <c r="F63" s="144"/>
-      <c r="G63" s="68"/>
-    </row>
-    <row r="64" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="91"/>
-      <c r="B64" s="67"/>
-      <c r="C64" s="80"/>
-      <c r="D64" s="81"/>
-      <c r="E64" s="81"/>
-      <c r="F64" s="144"/>
-      <c r="G64" s="68"/>
-    </row>
-    <row r="65" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="62" t="s">
-        <v>32</v>
-      </c>
-      <c r="B65" s="64" t="s">
-        <v>33</v>
-      </c>
-      <c r="C65" s="78" t="s">
-        <v>34</v>
-      </c>
-      <c r="D65" s="74">
-        <v>2</v>
-      </c>
-      <c r="E65" s="74">
-        <v>2</v>
-      </c>
-      <c r="F65" s="145" t="s">
-        <v>70</v>
-      </c>
-      <c r="G65" s="60"/>
+      <c r="G65" s="118"/>
     </row>
     <row r="66" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="62"/>
-      <c r="B66" s="64"/>
-      <c r="C66" s="78"/>
-      <c r="D66" s="75"/>
-      <c r="E66" s="75"/>
-      <c r="F66" s="146"/>
-      <c r="G66" s="60"/>
+      <c r="A66" s="120"/>
+      <c r="B66" s="122"/>
+      <c r="C66" s="83"/>
+      <c r="D66" s="81"/>
+      <c r="E66" s="81"/>
+      <c r="F66" s="156"/>
+      <c r="G66" s="118"/>
     </row>
     <row r="67" spans="1:7" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="63"/>
-      <c r="B67" s="65"/>
-      <c r="C67" s="79"/>
-      <c r="D67" s="76"/>
-      <c r="E67" s="76"/>
-      <c r="F67" s="147"/>
-      <c r="G67" s="61"/>
+      <c r="A67" s="121"/>
+      <c r="B67" s="123"/>
+      <c r="C67" s="84"/>
+      <c r="D67" s="82"/>
+      <c r="E67" s="82"/>
+      <c r="F67" s="157"/>
+      <c r="G67" s="119"/>
     </row>
     <row r="68" spans="1:7" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A68" s="15"/>
       <c r="B68" s="22"/>
-      <c r="C68" s="73" t="s">
+      <c r="C68" s="79" t="s">
         <v>36</v>
       </c>
-      <c r="D68" s="73"/>
+      <c r="D68" s="79"/>
       <c r="E68" s="26">
         <f>AVERAGE(E9:E67,E51,E51,E51,E51,E61,E61)</f>
         <v>2</v>
@@ -2906,77 +2906,173 @@
       <c r="G68" s="24"/>
     </row>
     <row r="69" spans="1:7" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="50" t="s">
+      <c r="A69" s="108" t="s">
         <v>44</v>
       </c>
-      <c r="B69" s="51"/>
-      <c r="C69" s="52"/>
-      <c r="D69" s="53"/>
-      <c r="E69" s="53"/>
-      <c r="F69" s="53"/>
-      <c r="G69" s="54"/>
+      <c r="B69" s="109"/>
+      <c r="C69" s="110"/>
+      <c r="D69" s="111"/>
+      <c r="E69" s="111"/>
+      <c r="F69" s="111"/>
+      <c r="G69" s="112"/>
     </row>
     <row r="70" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="55" t="s">
+      <c r="A70" s="113" t="s">
         <v>45</v>
       </c>
-      <c r="B70" s="56"/>
-      <c r="C70" s="57"/>
-      <c r="D70" s="58"/>
-      <c r="E70" s="58"/>
-      <c r="F70" s="58"/>
-      <c r="G70" s="59"/>
+      <c r="B70" s="114"/>
+      <c r="C70" s="115"/>
+      <c r="D70" s="116"/>
+      <c r="E70" s="116"/>
+      <c r="F70" s="116"/>
+      <c r="G70" s="117"/>
     </row>
     <row r="71" spans="1:7" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="45" t="s">
+      <c r="A71" s="103" t="s">
         <v>46</v>
       </c>
-      <c r="B71" s="46"/>
-      <c r="C71" s="47"/>
-      <c r="D71" s="48"/>
-      <c r="E71" s="48"/>
-      <c r="F71" s="48"/>
-      <c r="G71" s="49"/>
+      <c r="B71" s="104"/>
+      <c r="C71" s="105"/>
+      <c r="D71" s="106"/>
+      <c r="E71" s="106"/>
+      <c r="F71" s="106"/>
+      <c r="G71" s="107"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A72" s="42" t="s">
+      <c r="A72" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="B72" s="43"/>
-      <c r="C72" s="43"/>
-      <c r="D72" s="43"/>
-      <c r="E72" s="43"/>
-      <c r="F72" s="43"/>
-      <c r="G72" s="44"/>
+      <c r="B72" s="101"/>
+      <c r="C72" s="101"/>
+      <c r="D72" s="101"/>
+      <c r="E72" s="101"/>
+      <c r="F72" s="101"/>
+      <c r="G72" s="102"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A73" s="31" t="s">
+      <c r="A73" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="B73" s="32"/>
+      <c r="B73" s="91"/>
       <c r="C73" s="28"/>
-      <c r="D73" s="33" t="s">
+      <c r="D73" s="92" t="s">
         <v>48</v>
       </c>
-      <c r="E73" s="33"/>
-      <c r="F73" s="37"/>
-      <c r="G73" s="38"/>
+      <c r="E73" s="92"/>
+      <c r="F73" s="96"/>
+      <c r="G73" s="97"/>
     </row>
     <row r="74" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="34" t="s">
+      <c r="A74" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B74" s="35"/>
+      <c r="B74" s="94"/>
       <c r="C74" s="29"/>
-      <c r="D74" s="36" t="s">
+      <c r="D74" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="E74" s="36"/>
-      <c r="F74" s="39"/>
-      <c r="G74" s="40"/>
+      <c r="E74" s="95"/>
+      <c r="F74" s="98"/>
+      <c r="G74" s="99"/>
     </row>
   </sheetData>
   <mergeCells count="120">
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="D73:E73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="F73:G73"/>
+    <mergeCell ref="F74:G74"/>
+    <mergeCell ref="D55:D57"/>
+    <mergeCell ref="E55:E57"/>
+    <mergeCell ref="D58:D60"/>
+    <mergeCell ref="E58:E60"/>
+    <mergeCell ref="A72:G72"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="G65:G67"/>
+    <mergeCell ref="A65:A67"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="G58:G60"/>
+    <mergeCell ref="B61:B64"/>
+    <mergeCell ref="G61:G64"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="D18:D21"/>
+    <mergeCell ref="E18:E21"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="D65:D67"/>
+    <mergeCell ref="E65:E67"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="C65:C67"/>
+    <mergeCell ref="F65:F67"/>
+    <mergeCell ref="C61:C64"/>
+    <mergeCell ref="F61:F64"/>
+    <mergeCell ref="D61:D64"/>
+    <mergeCell ref="E61:E64"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="F15:F17"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="G51:G54"/>
+    <mergeCell ref="B55:B60"/>
+    <mergeCell ref="C55:C57"/>
+    <mergeCell ref="F55:F57"/>
+    <mergeCell ref="G55:G57"/>
+    <mergeCell ref="C58:C60"/>
+    <mergeCell ref="A51:A64"/>
+    <mergeCell ref="B51:B54"/>
+    <mergeCell ref="C51:C54"/>
+    <mergeCell ref="F51:F54"/>
+    <mergeCell ref="F58:F60"/>
+    <mergeCell ref="D51:D54"/>
+    <mergeCell ref="E51:E54"/>
+    <mergeCell ref="G45:G47"/>
+    <mergeCell ref="C48:C50"/>
+    <mergeCell ref="F48:F50"/>
+    <mergeCell ref="G48:G50"/>
+    <mergeCell ref="B42:B50"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="F42:F44"/>
+    <mergeCell ref="G42:G44"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="F45:F47"/>
+    <mergeCell ref="D42:D44"/>
+    <mergeCell ref="E42:E44"/>
+    <mergeCell ref="D45:D47"/>
+    <mergeCell ref="E45:E47"/>
+    <mergeCell ref="D48:D50"/>
+    <mergeCell ref="E48:E50"/>
+    <mergeCell ref="F22:F25"/>
+    <mergeCell ref="G22:G25"/>
+    <mergeCell ref="D22:D25"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="C38:C41"/>
+    <mergeCell ref="F38:F41"/>
+    <mergeCell ref="G38:G41"/>
+    <mergeCell ref="D38:D41"/>
+    <mergeCell ref="E38:E41"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="F34:F37"/>
+    <mergeCell ref="G34:G37"/>
+    <mergeCell ref="E22:E25"/>
+    <mergeCell ref="D26:D29"/>
+    <mergeCell ref="E26:E29"/>
+    <mergeCell ref="D30:D33"/>
+    <mergeCell ref="E30:E33"/>
+    <mergeCell ref="D34:D37"/>
+    <mergeCell ref="E34:E37"/>
     <mergeCell ref="A9:A50"/>
     <mergeCell ref="B9:B17"/>
     <mergeCell ref="C9:C11"/>
@@ -3001,102 +3097,6 @@
     <mergeCell ref="G26:G29"/>
     <mergeCell ref="G18:G21"/>
     <mergeCell ref="C22:C25"/>
-    <mergeCell ref="F22:F25"/>
-    <mergeCell ref="G22:G25"/>
-    <mergeCell ref="D22:D25"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="C38:C41"/>
-    <mergeCell ref="F38:F41"/>
-    <mergeCell ref="G38:G41"/>
-    <mergeCell ref="D38:D41"/>
-    <mergeCell ref="E38:E41"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="F34:F37"/>
-    <mergeCell ref="G34:G37"/>
-    <mergeCell ref="E22:E25"/>
-    <mergeCell ref="D26:D29"/>
-    <mergeCell ref="E26:E29"/>
-    <mergeCell ref="D30:D33"/>
-    <mergeCell ref="E30:E33"/>
-    <mergeCell ref="D34:D37"/>
-    <mergeCell ref="E34:E37"/>
-    <mergeCell ref="G45:G47"/>
-    <mergeCell ref="C48:C50"/>
-    <mergeCell ref="F48:F50"/>
-    <mergeCell ref="G48:G50"/>
-    <mergeCell ref="B42:B50"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="F42:F44"/>
-    <mergeCell ref="G42:G44"/>
-    <mergeCell ref="C45:C47"/>
-    <mergeCell ref="F45:F47"/>
-    <mergeCell ref="D42:D44"/>
-    <mergeCell ref="E42:E44"/>
-    <mergeCell ref="D45:D47"/>
-    <mergeCell ref="E45:E47"/>
-    <mergeCell ref="D48:D50"/>
-    <mergeCell ref="E48:E50"/>
-    <mergeCell ref="G51:G54"/>
-    <mergeCell ref="B55:B60"/>
-    <mergeCell ref="C55:C57"/>
-    <mergeCell ref="F55:F57"/>
-    <mergeCell ref="G55:G57"/>
-    <mergeCell ref="C58:C60"/>
-    <mergeCell ref="A51:A64"/>
-    <mergeCell ref="B51:B54"/>
-    <mergeCell ref="C51:C54"/>
-    <mergeCell ref="F51:F54"/>
-    <mergeCell ref="F58:F60"/>
-    <mergeCell ref="D51:D54"/>
-    <mergeCell ref="E51:E54"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="D18:D21"/>
-    <mergeCell ref="E18:E21"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="D65:D67"/>
-    <mergeCell ref="E65:E67"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="C65:C67"/>
-    <mergeCell ref="F65:F67"/>
-    <mergeCell ref="C61:C64"/>
-    <mergeCell ref="F61:F64"/>
-    <mergeCell ref="D61:D64"/>
-    <mergeCell ref="E61:E64"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="F15:F17"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="D73:E73"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="F73:G73"/>
-    <mergeCell ref="F74:G74"/>
-    <mergeCell ref="D55:D57"/>
-    <mergeCell ref="E55:E57"/>
-    <mergeCell ref="D58:D60"/>
-    <mergeCell ref="E58:E60"/>
-    <mergeCell ref="A72:G72"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="C71:G71"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="C69:G69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="C70:G70"/>
-    <mergeCell ref="G65:G67"/>
-    <mergeCell ref="A65:A67"/>
-    <mergeCell ref="B65:B67"/>
-    <mergeCell ref="G58:G60"/>
-    <mergeCell ref="B61:B64"/>
-    <mergeCell ref="G61:G64"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3178,15 +3178,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DAFEF6EC0A8CF045B465905BC1BFEE78" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4463bcd27b22be3734d92135f9648bf6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4aeb20c0e3442673af7ee10786458764">
     <xsd:element name="properties">
@@ -3235,6 +3226,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{786271B0-769C-40AB-90D8-5921F1959857}">
   <ds:schemaRefs>
@@ -3250,14 +3250,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3B648F4-E72A-4E3D-8CAA-F11D5EF0F58F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D5E645F-9992-4EBD-9402-1E3B817C1828}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3270,4 +3262,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3B648F4-E72A-4E3D-8CAA-F11D5EF0F58F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>